--- a/Data/Nisqually/Chinook and Chum catches for Liz.xlsx
+++ b/Data/Nisqually/Chinook and Chum catches for Liz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth Allyn\Documents\GitHub\PinnipedCaseStudies\Data\Nisqually\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76DBDC9A-2BA2-469D-979B-7A0FD89D46E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B214E11-A879-4A37-828D-75E79EDA70E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27645" yWindow="6060" windowWidth="24720" windowHeight="14355" xr2:uid="{7E74A925-E3E2-4B72-98B7-CF5D58AED492}"/>
+    <workbookView xWindow="-27720" yWindow="6315" windowWidth="24720" windowHeight="14355" xr2:uid="{7E74A925-E3E2-4B72-98B7-CF5D58AED492}"/>
   </bookViews>
   <sheets>
     <sheet name="Chinook catch split " sheetId="8" r:id="rId1"/>
@@ -22,9 +22,12 @@
     <sheet name="Gen samples" sheetId="9" r:id="rId7"/>
     <sheet name="Mn Week Calc" sheetId="2" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Nisq Chum Catch'!$A$1:$O$430</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1232,6 +1235,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1244,8 +1248,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1253,10 +1256,7 @@
     <cellStyle name="Normal 2" xfId="3" xr:uid="{406E9283-86D7-4C3B-9116-702E8BC691E6}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -9901,7 +9901,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E61CF0C-3965-4533-B05A-C8D2E4264581}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4E61CF0C-3965-4533-B05A-C8D2E4264581}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="S6:U23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField dataField="1" numFmtId="14" showAll="0"/>
@@ -10355,7 +10355,7 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11420,13 +11420,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861F2679-1095-4879-AA18-62C5D4DACD98}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:Z430"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView topLeftCell="C338" workbookViewId="0">
+      <selection activeCell="S331" sqref="S331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11501,7 +11501,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45">
         <v>38312</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45">
         <v>38313</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45">
         <v>38314</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>63.593389231932321</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45">
         <v>38315</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>0.23853211009174313</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45">
         <v>38319</v>
       </c>
@@ -11801,7 +11801,7 @@
         <f t="shared" si="8"/>
         <v>0.26114649681528662</v>
       </c>
-      <c r="S6" s="149" t="s">
+      <c r="S6" s="145" t="s">
         <v>30</v>
       </c>
       <c r="T6" t="s">
@@ -11811,7 +11811,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45">
         <v>38320</v>
       </c>
@@ -11876,7 +11876,7 @@
         <v>38370</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45">
         <v>38321</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>38739</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45">
         <v>38322</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>39092</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45">
         <v>38326</v>
       </c>
@@ -12071,7 +12071,7 @@
         <v>39463</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45">
         <v>38327</v>
       </c>
@@ -12136,7 +12136,7 @@
         <v>39827</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45">
         <v>38328</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>40184</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45">
         <v>38329</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>40534</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45">
         <v>38333</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>40926</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45">
         <v>38334</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>41269</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45">
         <v>38335</v>
       </c>
@@ -12461,7 +12461,7 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45">
         <v>38336</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>41997</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45">
         <v>38340</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>42367</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45">
         <v>38341</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>42690</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45">
         <v>38342</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>43117</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45">
         <v>38343</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>43452</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45">
         <v>38347</v>
       </c>
@@ -12851,7 +12851,7 @@
         <v>43808</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45">
         <v>38348</v>
       </c>
@@ -12909,14 +12909,14 @@
       <c r="S23" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="T23" s="150">
+      <c r="T23">
         <v>38312</v>
       </c>
-      <c r="U23" s="150">
+      <c r="U23">
         <v>43808</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45">
         <v>38349</v>
       </c>
@@ -12973,7 +12973,7 @@
       </c>
       <c r="T24" s="54"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45">
         <v>38350</v>
       </c>
@@ -13029,7 +13029,7 @@
         <v>0.33728813559322035</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45">
         <v>38354</v>
       </c>
@@ -13084,7 +13084,7 @@
         <v>0.42844120328167729</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45">
         <v>38355</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>0.41061130334486734</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="45">
         <v>38356</v>
       </c>
@@ -13194,7 +13194,7 @@
         <v>0.40170940170940173</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="45">
         <v>38357</v>
       </c>
@@ -13249,7 +13249,7 @@
         <v>0.34862385321100919</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45">
         <v>38361</v>
       </c>
@@ -13304,7 +13304,7 @@
         <v>0.44817927170868349</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45">
         <v>38362</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>0.59523809523809523</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45">
         <v>38363</v>
       </c>
@@ -13414,7 +13414,7 @@
         <v>0.52095808383233533</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45">
         <v>38364</v>
       </c>
@@ -13460,7 +13460,7 @@
       </c>
       <c r="O33" s="59"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45">
         <v>38368</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>0.47712418300653597</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45">
         <v>38369</v>
       </c>
@@ -13570,7 +13570,7 @@
         <v>0.52261306532663321</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45">
         <v>38370</v>
       </c>
@@ -13616,7 +13616,7 @@
       </c>
       <c r="O36" s="59"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45">
         <v>38669</v>
       </c>
@@ -13672,7 +13672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45">
         <v>38670</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="45">
         <v>38671</v>
       </c>
@@ -13784,7 +13784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45">
         <v>38672</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45">
         <v>38676</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45">
         <v>38677</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45">
         <v>38678</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>0.29629629629629628</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="45">
         <v>38679</v>
       </c>
@@ -14064,7 +14064,7 @@
         <v>0.10526315789473684</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45">
         <v>38683</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>0.26515151515151514</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45">
         <v>38684</v>
       </c>
@@ -14176,7 +14176,7 @@
         <v>0.20512820512820512</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="45">
         <v>38685</v>
       </c>
@@ -14232,7 +14232,7 @@
         <v>0.22807017543859648</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="45">
         <v>38686</v>
       </c>
@@ -14288,7 +14288,7 @@
         <v>0.35802469135802467</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45">
         <v>38690</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>0.2786259541984733</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="45">
         <v>38691</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>0.33161953727506427</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="45">
         <v>38692</v>
       </c>
@@ -14456,7 +14456,7 @@
         <v>0.34920634920634919</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="45">
         <v>38693</v>
       </c>
@@ -14512,7 +14512,7 @@
         <v>0.21649484536082475</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="45">
         <v>38697</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>0.3141025641025641</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="45">
         <v>38698</v>
       </c>
@@ -14624,7 +14624,7 @@
         <v>0.27920792079207923</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="45">
         <v>38699</v>
       </c>
@@ -14680,7 +14680,7 @@
         <v>0.27182044887780549</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="45">
         <v>38700</v>
       </c>
@@ -14736,7 +14736,7 @@
         <v>0.1680129240710824</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="45">
         <v>38704</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>0.30896551724137933</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="45">
         <v>38705</v>
       </c>
@@ -14848,7 +14848,7 @@
         <v>0.24703419399860432</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="45">
         <v>38706</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>0.2673545966228893</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="45">
         <v>38707</v>
       </c>
@@ -14960,7 +14960,7 @@
         <v>0.246588693957115</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="45">
         <v>38711</v>
       </c>
@@ -15016,7 +15016,7 @@
         <v>0.36534133533383345</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="45">
         <v>38712</v>
       </c>
@@ -15072,7 +15072,7 @@
         <v>0.34736064968623109</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="45">
         <v>38713</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>0.34802904564315351</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="45">
         <v>38714</v>
       </c>
@@ -15184,7 +15184,7 @@
         <v>0.32814710042432815</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="45">
         <v>38718</v>
       </c>
@@ -15239,7 +15239,7 @@
         <v>0.42750233863423759</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="45">
         <v>38719</v>
       </c>
@@ -15294,7 +15294,7 @@
         <v>0.41795865633074936</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="45">
         <v>38720</v>
       </c>
@@ -15349,7 +15349,7 @@
         <v>0.37759336099585061</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="45">
         <v>38721</v>
       </c>
@@ -15404,7 +15404,7 @@
         <v>0.42900302114803623</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="45">
         <v>38725</v>
       </c>
@@ -15459,7 +15459,7 @@
         <v>0.48087431693989069</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="45">
         <v>38726</v>
       </c>
@@ -15514,7 +15514,7 @@
         <v>0.40133779264214048</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="45">
         <v>38727</v>
       </c>
@@ -15569,7 +15569,7 @@
         <v>0.58490566037735847</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="45">
         <v>38728</v>
       </c>
@@ -15624,7 +15624,7 @@
         <v>0.4838709677419355</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="45">
         <v>38732</v>
       </c>
@@ -15670,7 +15670,7 @@
       </c>
       <c r="O73" s="59"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="45">
         <v>38733</v>
       </c>
@@ -15725,7 +15725,7 @@
         <v>0.47362385321100919</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="45">
         <v>38734</v>
       </c>
@@ -15780,7 +15780,7 @@
         <v>0.5112107623318386</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="45">
         <v>38735</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>0.50996015936254979</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45">
         <v>38737</v>
       </c>
@@ -15890,7 +15890,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="45">
         <v>38738</v>
       </c>
@@ -15945,7 +15945,7 @@
         <v>0.36734693877551022</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="45">
         <v>38739</v>
       </c>
@@ -16000,7 +16000,7 @@
         <v>0.33766233766233766</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="60">
         <v>39040</v>
       </c>
@@ -16056,7 +16056,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="60">
         <v>39041</v>
       </c>
@@ -16112,7 +16112,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="60">
         <v>39042</v>
       </c>
@@ -16168,7 +16168,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="60">
         <v>39043</v>
       </c>
@@ -16224,7 +16224,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="60">
         <v>39047</v>
       </c>
@@ -16280,7 +16280,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="60">
         <v>39048</v>
       </c>
@@ -16336,7 +16336,7 @@
         <v>9.7560975609756101E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="60">
         <v>39049</v>
       </c>
@@ -16392,7 +16392,7 @@
         <v>0.12903225806451613</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="60">
         <v>39050</v>
       </c>
@@ -16448,7 +16448,7 @@
         <v>0.30555555555555558</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="60">
         <v>39054</v>
       </c>
@@ -16504,7 +16504,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="60">
         <v>39055</v>
       </c>
@@ -16560,7 +16560,7 @@
         <v>0.28021978021978022</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="60">
         <v>39056</v>
       </c>
@@ -16616,7 +16616,7 @@
         <v>0.27407407407407408</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="60">
         <v>39057</v>
       </c>
@@ -16672,7 +16672,7 @@
         <v>0.23703703703703705</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="60">
         <v>39061</v>
       </c>
@@ -16728,7 +16728,7 @@
         <v>0.75389408099688471</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="60">
         <v>39062</v>
       </c>
@@ -16784,7 +16784,7 @@
         <v>0.82550335570469802</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="60">
         <v>39063</v>
       </c>
@@ -16840,7 +16840,7 @@
         <v>0.74860335195530725</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="60">
         <v>39064</v>
       </c>
@@ -16896,7 +16896,7 @@
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="60">
         <v>39068</v>
       </c>
@@ -16952,7 +16952,7 @@
         <v>0.32307692307692309</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="60">
         <v>39069</v>
       </c>
@@ -17008,7 +17008,7 @@
         <v>0.34698795180722891</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="60">
         <v>39070</v>
       </c>
@@ -17064,7 +17064,7 @@
         <v>0.33191489361702126</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="60">
         <v>39071</v>
       </c>
@@ -17120,7 +17120,7 @@
         <v>0.35428571428571426</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="60">
         <v>39075</v>
       </c>
@@ -17176,7 +17176,7 @@
         <v>0.52941176470588236</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="60">
         <v>39076</v>
       </c>
@@ -17232,7 +17232,7 @@
         <v>0.3705357142857143</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="60">
         <v>39077</v>
       </c>
@@ -17288,7 +17288,7 @@
         <v>0.33734939759036142</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="60">
         <v>39078</v>
       </c>
@@ -17344,7 +17344,7 @@
         <v>0.32105263157894737</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="60">
         <v>39082</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>0.43396226415094341</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="60">
         <v>39083</v>
       </c>
@@ -17455,7 +17455,7 @@
         <v>0.51724137931034486</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="60">
         <v>39084</v>
       </c>
@@ -17510,7 +17510,7 @@
         <v>0.31111111111111112</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="60">
         <v>39085</v>
       </c>
@@ -17565,7 +17565,7 @@
         <v>0.32926829268292684</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="60">
         <v>39089</v>
       </c>
@@ -17620,7 +17620,7 @@
         <v>0.51351351351351349</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="60">
         <v>39090</v>
       </c>
@@ -17675,7 +17675,7 @@
         <v>0.48677248677248675</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="60">
         <v>39091</v>
       </c>
@@ -17730,7 +17730,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="60">
         <v>39092</v>
       </c>
@@ -17785,7 +17785,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="45">
         <v>39404</v>
       </c>
@@ -17841,7 +17841,7 @@
         <v>0.46285714285714286</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="45">
         <v>39405</v>
       </c>
@@ -17890,7 +17890,7 @@
       <c r="N113" s="52"/>
       <c r="O113" s="59"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="45">
         <v>39406</v>
       </c>
@@ -17939,7 +17939,7 @@
       <c r="N114" s="52"/>
       <c r="O114" s="59"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="45">
         <v>39407</v>
       </c>
@@ -17988,7 +17988,7 @@
       <c r="N115" s="52"/>
       <c r="O115" s="59"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="45">
         <v>39411</v>
       </c>
@@ -18044,7 +18044,7 @@
         <v>0.34627831715210355</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="45">
         <v>39412</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>0.31382978723404253</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="45">
         <v>39413</v>
       </c>
@@ -18156,7 +18156,7 @@
         <v>0.51219512195121952</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="45">
         <v>39414</v>
       </c>
@@ -18212,7 +18212,7 @@
         <v>0.44554455445544555</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="45">
         <v>39418</v>
       </c>
@@ -18268,7 +18268,7 @@
         <v>0.41051454138702459</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="45">
         <v>39419</v>
       </c>
@@ -18324,7 +18324,7 @@
         <v>0.36681222707423583</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="45">
         <v>39420</v>
       </c>
@@ -18373,7 +18373,7 @@
       <c r="N122" s="52"/>
       <c r="O122" s="59"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="45">
         <v>39421</v>
       </c>
@@ -18429,7 +18429,7 @@
         <v>0.38235294117647056</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="45">
         <v>39425</v>
       </c>
@@ -18485,7 +18485,7 @@
         <v>0.39160839160839161</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="45">
         <v>39426</v>
       </c>
@@ -18541,7 +18541,7 @@
         <v>0.44496487119437939</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="45">
         <v>39427</v>
       </c>
@@ -18597,7 +18597,7 @@
         <v>0.41587301587301589</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="45">
         <v>39428</v>
       </c>
@@ -18653,7 +18653,7 @@
         <v>0.40332640332640335</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="45">
         <v>39432</v>
       </c>
@@ -18709,7 +18709,7 @@
         <v>0.53779697624190059</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="45">
         <v>39433</v>
       </c>
@@ -18765,7 +18765,7 @@
         <v>0.4966517857142857</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="45">
         <v>39434</v>
       </c>
@@ -18821,7 +18821,7 @@
         <v>0.49772382397572079</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="45">
         <v>39435</v>
       </c>
@@ -18877,7 +18877,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="45">
         <v>39439</v>
       </c>
@@ -18933,7 +18933,7 @@
         <v>0.59485530546623799</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="45">
         <v>39440</v>
       </c>
@@ -18989,7 +18989,7 @@
         <v>0.58260869565217388</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="45">
         <v>39441</v>
       </c>
@@ -19045,7 +19045,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="45">
         <v>39442</v>
       </c>
@@ -19101,7 +19101,7 @@
         <v>0.5161290322580645</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="45">
         <v>39446</v>
       </c>
@@ -19157,7 +19157,7 @@
         <v>0.54058441558441561</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="45">
         <v>39447</v>
       </c>
@@ -19213,7 +19213,7 @@
         <v>0.57446808510638303</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="45">
         <v>39448</v>
       </c>
@@ -19268,7 +19268,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="45">
         <v>39449</v>
       </c>
@@ -19323,7 +19323,7 @@
         <v>0.42129629629629628</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="45">
         <v>39453</v>
       </c>
@@ -19378,7 +19378,7 @@
         <v>0.63253012048192769</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="45">
         <v>39454</v>
       </c>
@@ -19433,7 +19433,7 @@
         <v>0.48416289592760181</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="45">
         <v>39455</v>
       </c>
@@ -19488,7 +19488,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="45">
         <v>39456</v>
       </c>
@@ -19536,7 +19536,7 @@
       <c r="N143" s="52"/>
       <c r="O143" s="59"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="45">
         <v>39460</v>
       </c>
@@ -19591,7 +19591,7 @@
         <v>0.55238095238095242</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="45">
         <v>39461</v>
       </c>
@@ -19639,7 +19639,7 @@
       <c r="N145" s="52"/>
       <c r="O145" s="59"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="45">
         <v>39462</v>
       </c>
@@ -19687,7 +19687,7 @@
       <c r="N146" s="52"/>
       <c r="O146" s="59"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="45">
         <v>39463</v>
       </c>
@@ -19735,7 +19735,7 @@
       <c r="N147" s="52"/>
       <c r="O147" s="59"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="45">
         <v>39768</v>
       </c>
@@ -19791,7 +19791,7 @@
         <v>0.34161490683229812</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="45">
         <v>39769</v>
       </c>
@@ -19847,7 +19847,7 @@
         <v>0.34426229508196721</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="45">
         <v>39770</v>
       </c>
@@ -19894,7 +19894,7 @@
       </c>
       <c r="O150" s="59"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="45">
         <v>39771</v>
       </c>
@@ -19950,7 +19950,7 @@
         <v>0.44897959183673469</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="45">
         <v>39775</v>
       </c>
@@ -20006,7 +20006,7 @@
         <v>0.44607843137254904</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="45">
         <v>39776</v>
       </c>
@@ -20053,7 +20053,7 @@
       </c>
       <c r="O153" s="59"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="45">
         <v>39777</v>
       </c>
@@ -20100,7 +20100,7 @@
       </c>
       <c r="O154" s="59"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="45">
         <v>39778</v>
       </c>
@@ -20147,7 +20147,7 @@
       </c>
       <c r="O155" s="59"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="45">
         <v>39782</v>
       </c>
@@ -20194,7 +20194,7 @@
       </c>
       <c r="O156" s="59"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="45">
         <v>39783</v>
       </c>
@@ -20250,7 +20250,7 @@
         <v>0.38480392156862747</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="45">
         <v>39784</v>
       </c>
@@ -20306,7 +20306,7 @@
         <v>0.43478260869565216</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="45">
         <v>39785</v>
       </c>
@@ -20362,7 +20362,7 @@
         <v>0.3632286995515695</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="45">
         <v>39789</v>
       </c>
@@ -20418,7 +20418,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="45">
         <v>39790</v>
       </c>
@@ -20474,7 +20474,7 @@
         <v>0.37655601659751037</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="45">
         <v>39791</v>
       </c>
@@ -20530,7 +20530,7 @@
         <v>0.36389280677009872</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="45">
         <v>39792</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>0.38105726872246698</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="45">
         <v>39796</v>
       </c>
@@ -20642,7 +20642,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="45">
         <v>39797</v>
       </c>
@@ -20698,7 +20698,7 @@
         <v>0.41773102930127726</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="45">
         <v>39798</v>
       </c>
@@ -20754,7 +20754,7 @@
         <v>0.46074646074646075</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="45">
         <v>39799</v>
       </c>
@@ -20810,7 +20810,7 @@
         <v>0.52334943639291465</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="45">
         <v>39803</v>
       </c>
@@ -20866,7 +20866,7 @@
         <v>0.50295857988165682</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="45">
         <v>39804</v>
       </c>
@@ -20922,7 +20922,7 @@
         <v>0.47169811320754718</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="45">
         <v>39805</v>
       </c>
@@ -20978,7 +20978,7 @@
         <v>0.6517857142857143</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="45">
         <v>39806</v>
       </c>
@@ -21034,7 +21034,7 @@
         <v>0.59130434782608698</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="45">
         <v>39807</v>
       </c>
@@ -21081,7 +21081,7 @@
       </c>
       <c r="O172" s="59"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="45">
         <v>39810</v>
       </c>
@@ -21137,7 +21137,7 @@
         <v>0.50729517396184065</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="45">
         <v>39811</v>
       </c>
@@ -21193,7 +21193,7 @@
         <v>0.47256637168141591</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="45">
         <v>39812</v>
       </c>
@@ -21249,7 +21249,7 @@
         <v>0.5405819295558959</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="45">
         <v>39813</v>
       </c>
@@ -21305,7 +21305,7 @@
         <v>0.41527446300715992</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="45">
         <v>39817</v>
       </c>
@@ -21360,7 +21360,7 @@
         <v>0.5249597423510467</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="45">
         <v>39818</v>
       </c>
@@ -21415,7 +21415,7 @@
         <v>0.47903430749682335</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="45">
         <v>39819</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>0.44505494505494503</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="45">
         <v>39820</v>
       </c>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="O180" s="59"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="45">
         <v>39824</v>
       </c>
@@ -21571,7 +21571,7 @@
         <v>0.29629629629629628</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="45">
         <v>39825</v>
       </c>
@@ -21626,7 +21626,7 @@
         <v>0.55263157894736847</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="45">
         <v>39826</v>
       </c>
@@ -21681,7 +21681,7 @@
         <v>0.76190476190476186</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="45">
         <v>39827</v>
       </c>
@@ -21721,7 +21721,7 @@
       </c>
       <c r="O184" s="59"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="45">
         <v>40132</v>
       </c>
@@ -21768,7 +21768,7 @@
       </c>
       <c r="O185" s="59"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="45">
         <v>40133</v>
       </c>
@@ -21815,7 +21815,7 @@
       </c>
       <c r="O186" s="59"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="45">
         <v>40134</v>
       </c>
@@ -21862,7 +21862,7 @@
       </c>
       <c r="O187" s="59"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="45">
         <v>40135</v>
       </c>
@@ -21909,7 +21909,7 @@
       </c>
       <c r="O188" s="59"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="45">
         <v>40139</v>
       </c>
@@ -21965,7 +21965,7 @@
         <v>0.43428571428571427</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="45">
         <v>40140</v>
       </c>
@@ -22021,7 +22021,7 @@
         <v>0.24193548387096775</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="45">
         <v>40141</v>
       </c>
@@ -22068,7 +22068,7 @@
       </c>
       <c r="O191" s="59"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="45">
         <v>40142</v>
       </c>
@@ -22115,7 +22115,7 @@
       </c>
       <c r="O192" s="59"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="45">
         <v>40146</v>
       </c>
@@ -22162,7 +22162,7 @@
       </c>
       <c r="O193" s="59"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="45">
         <v>40147</v>
       </c>
@@ -22218,7 +22218,7 @@
         <v>0.36760124610591899</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="45">
         <v>40148</v>
       </c>
@@ -22274,7 +22274,7 @@
         <v>0.43085106382978722</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="45">
         <v>40149</v>
       </c>
@@ -22330,7 +22330,7 @@
         <v>0.37777777777777777</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="45">
         <v>40153</v>
       </c>
@@ -22386,7 +22386,7 @@
         <v>0.36639439906651111</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="45">
         <v>40154</v>
       </c>
@@ -22442,7 +22442,7 @@
         <v>0.36950904392764861</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="45">
         <v>40155</v>
       </c>
@@ -22498,7 +22498,7 @@
         <v>0.4060846560846561</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="45">
         <v>40156</v>
       </c>
@@ -22554,7 +22554,7 @@
         <v>0.48192771084337349</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="45">
         <v>40160</v>
       </c>
@@ -22610,7 +22610,7 @@
         <v>0.43822843822843821</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="45">
         <v>40161</v>
       </c>
@@ -22666,7 +22666,7 @@
         <v>0.43776824034334766</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="45">
         <v>40162</v>
       </c>
@@ -22722,7 +22722,7 @@
         <v>0.41246290801186941</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="45">
         <v>40163</v>
       </c>
@@ -22778,7 +22778,7 @@
         <v>0.35911602209944754</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="45">
         <v>40167</v>
       </c>
@@ -22834,7 +22834,7 @@
         <v>0.3825242718446602</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="45">
         <v>40168</v>
       </c>
@@ -22890,7 +22890,7 @@
         <v>0.42356241234221598</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="45">
         <v>40169</v>
       </c>
@@ -22946,7 +22946,7 @@
         <v>0.44121532364597094</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="45">
         <v>40170</v>
       </c>
@@ -23002,7 +23002,7 @@
         <v>0.44539614561027835</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="45">
         <v>40174</v>
       </c>
@@ -23058,7 +23058,7 @@
         <v>0.49732620320855614</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="45">
         <v>40175</v>
       </c>
@@ -23114,7 +23114,7 @@
         <v>0.46911196911196912</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="45">
         <v>40176</v>
       </c>
@@ -23170,7 +23170,7 @@
         <v>0.43596730245231607</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="45">
         <v>40177</v>
       </c>
@@ -23226,7 +23226,7 @@
         <v>0.4978540772532189</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="45">
         <v>40181</v>
       </c>
@@ -23281,7 +23281,7 @@
         <v>0.43622920517560076</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="45">
         <v>40182</v>
       </c>
@@ -23336,7 +23336,7 @@
         <v>0.50359712230215825</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="45">
         <v>40183</v>
       </c>
@@ -23391,7 +23391,7 @@
         <v>0.54268292682926833</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="45">
         <v>40184</v>
       </c>
@@ -23446,7 +23446,7 @@
         <v>0.56666666666666665</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="45">
         <v>40503</v>
       </c>
@@ -23502,7 +23502,7 @@
         <v>0.40662650602409639</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="45">
         <v>40504</v>
       </c>
@@ -23558,7 +23558,7 @@
         <v>0.32142857142857145</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="45">
         <v>40505</v>
       </c>
@@ -23614,7 +23614,7 @@
         <v>0.27927927927927926</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="45">
         <v>40506</v>
       </c>
@@ -23661,7 +23661,7 @@
       </c>
       <c r="O220" s="59"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="45">
         <v>40510</v>
       </c>
@@ -23717,7 +23717,7 @@
         <v>0.40540540540540543</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="45">
         <v>40511</v>
       </c>
@@ -23773,7 +23773,7 @@
         <v>0.37745098039215685</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="45">
         <v>40512</v>
       </c>
@@ -23829,7 +23829,7 @@
         <v>0.33962264150943394</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="45">
         <v>40513</v>
       </c>
@@ -23885,7 +23885,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="45">
         <v>40517</v>
       </c>
@@ -23941,7 +23941,7 @@
         <v>0.33176100628930816</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="45">
         <v>40518</v>
       </c>
@@ -23997,7 +23997,7 @@
         <v>0.40188087774294673</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="45">
         <v>40519</v>
       </c>
@@ -24053,7 +24053,7 @@
         <v>0.41995073891625617</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="45">
         <v>40520</v>
       </c>
@@ -24109,7 +24109,7 @@
         <v>0.43190661478599224</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="45">
         <v>40524</v>
       </c>
@@ -24165,7 +24165,7 @@
         <v>0.36666666666666664</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="45">
         <v>40525</v>
       </c>
@@ -24221,7 +24221,7 @@
         <v>0.39622641509433965</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="45">
         <v>40526</v>
       </c>
@@ -24277,7 +24277,7 @@
         <v>0.41159695817490494</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="45">
         <v>40527</v>
       </c>
@@ -24333,7 +24333,7 @@
         <v>0.45054945054945056</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="45">
         <v>40531</v>
       </c>
@@ -24389,7 +24389,7 @@
         <v>0.45870206489675514</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="45">
         <v>40532</v>
       </c>
@@ -24445,7 +24445,7 @@
         <v>0.4726027397260274</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="45">
         <v>40533</v>
       </c>
@@ -24501,7 +24501,7 @@
         <v>0.4358974358974359</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="45">
         <v>40534</v>
       </c>
@@ -24557,7 +24557,7 @@
         <v>0.36986301369863012</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="62">
         <v>40867</v>
       </c>
@@ -24613,7 +24613,7 @@
         <v>0.35384615384615387</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="62">
         <v>40868</v>
       </c>
@@ -24662,7 +24662,7 @@
       <c r="N238" s="64"/>
       <c r="O238" s="59"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="62">
         <v>40869</v>
       </c>
@@ -24718,7 +24718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="62">
         <v>40870</v>
       </c>
@@ -24767,7 +24767,7 @@
       <c r="N240" s="64"/>
       <c r="O240" s="59"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="62">
         <v>40874</v>
       </c>
@@ -24823,7 +24823,7 @@
         <v>0.42279411764705882</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="62">
         <v>40875</v>
       </c>
@@ -24879,7 +24879,7 @@
         <v>0.43636363636363634</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="62">
         <v>40876</v>
       </c>
@@ -24935,7 +24935,7 @@
         <v>0.39873417721518989</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="62">
         <v>40877</v>
       </c>
@@ -24991,7 +24991,7 @@
         <v>0.37037037037037035</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="62">
         <v>40881</v>
       </c>
@@ -25047,7 +25047,7 @@
         <v>0.44357976653696496</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="62">
         <v>40882</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v>0.29841269841269841</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="62">
         <v>40883</v>
       </c>
@@ -25159,7 +25159,7 @@
         <v>0.3807531380753138</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="62">
         <v>40884</v>
       </c>
@@ -25215,7 +25215,7 @@
         <v>0.34302325581395349</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="62">
         <v>40888</v>
       </c>
@@ -25271,7 +25271,7 @@
         <v>0.38576779026217228</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="62">
         <v>40889</v>
       </c>
@@ -25327,7 +25327,7 @@
         <v>0.33966244725738398</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="62">
         <v>40890</v>
       </c>
@@ -25383,7 +25383,7 @@
         <v>0.33581296493092455</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="62">
         <v>40891</v>
       </c>
@@ -25439,7 +25439,7 @@
         <v>0.42788461538461536</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="62">
         <v>40895</v>
       </c>
@@ -25495,7 +25495,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="62">
         <v>40896</v>
       </c>
@@ -25551,7 +25551,7 @@
         <v>0.44596131968145619</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="62">
         <v>40897</v>
       </c>
@@ -25607,7 +25607,7 @@
         <v>0.38260869565217392</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="62">
         <v>40898</v>
       </c>
@@ -25663,7 +25663,7 @@
         <v>0.49230769230769234</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="62">
         <v>40902</v>
       </c>
@@ -25719,7 +25719,7 @@
         <v>0.44420600858369097</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="62">
         <v>40903</v>
       </c>
@@ -25775,7 +25775,7 @@
         <v>0.40888888888888891</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="62">
         <v>40904</v>
       </c>
@@ -25831,7 +25831,7 @@
         <v>0.51606805293005675</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="62">
         <v>40905</v>
       </c>
@@ -25887,7 +25887,7 @@
         <v>0.5032397408207343</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="62">
         <v>40909</v>
       </c>
@@ -25942,7 +25942,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="62">
         <v>40910</v>
       </c>
@@ -25997,7 +25997,7 @@
         <v>0.53644501278772383</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="62">
         <v>40911</v>
       </c>
@@ -26052,7 +26052,7 @@
         <v>0.57633587786259544</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="62">
         <v>40912</v>
       </c>
@@ -26100,7 +26100,7 @@
       <c r="N264" s="64"/>
       <c r="O264" s="59"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="62">
         <v>40916</v>
       </c>
@@ -26155,7 +26155,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="62">
         <v>40917</v>
       </c>
@@ -26210,7 +26210,7 @@
         <v>0.52641878669275932</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="62">
         <v>40918</v>
       </c>
@@ -26265,7 +26265,7 @@
         <v>0.4854368932038835</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="62">
         <v>40919</v>
       </c>
@@ -26313,7 +26313,7 @@
       <c r="N268" s="64"/>
       <c r="O268" s="59"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="62">
         <v>40923</v>
       </c>
@@ -26368,7 +26368,7 @@
         <v>0.49122807017543857</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="62">
         <v>40924</v>
       </c>
@@ -26423,7 +26423,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="62">
         <v>40925</v>
       </c>
@@ -26471,7 +26471,7 @@
       <c r="N271" s="64"/>
       <c r="O271" s="59"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="62">
         <v>40926</v>
       </c>
@@ -26516,7 +26516,7 @@
       <c r="N272" s="64"/>
       <c r="O272" s="59"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="62">
         <v>41231</v>
       </c>
@@ -26565,7 +26565,7 @@
       <c r="N273" s="64"/>
       <c r="O273" s="59"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="62">
         <v>41232</v>
       </c>
@@ -26614,7 +26614,7 @@
       <c r="N274" s="64"/>
       <c r="O274" s="59"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="62">
         <v>41233</v>
       </c>
@@ -26663,7 +26663,7 @@
       <c r="N275" s="64"/>
       <c r="O275" s="59"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="62">
         <v>41234</v>
       </c>
@@ -26712,7 +26712,7 @@
       <c r="N276" s="64"/>
       <c r="O276" s="59"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="62">
         <v>41238</v>
       </c>
@@ -26768,7 +26768,7 @@
         <v>0.28488372093023256</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="62">
         <v>41239</v>
       </c>
@@ -26824,7 +26824,7 @@
         <v>0.30666666666666664</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="62">
         <v>41240</v>
       </c>
@@ -26880,7 +26880,7 @@
         <v>0.39423076923076922</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="62">
         <v>41241</v>
       </c>
@@ -26936,7 +26936,7 @@
         <v>0.31304347826086959</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="62">
         <v>41245</v>
       </c>
@@ -26992,7 +26992,7 @@
         <v>0.37982195845697331</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="62">
         <v>41246</v>
       </c>
@@ -27048,7 +27048,7 @@
         <v>0.36882129277566539</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="62">
         <v>41247</v>
       </c>
@@ -27104,7 +27104,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="62">
         <v>41248</v>
       </c>
@@ -27160,7 +27160,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="62">
         <v>41252</v>
       </c>
@@ -27216,7 +27216,7 @@
         <v>0.51282051282051277</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="62">
         <v>41253</v>
       </c>
@@ -27272,7 +27272,7 @@
         <v>0.46288209606986902</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="62">
         <v>41254</v>
       </c>
@@ -27328,7 +27328,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="62">
         <v>41255</v>
       </c>
@@ -27384,7 +27384,7 @@
         <v>0.39516129032258063</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="62">
         <v>41259</v>
       </c>
@@ -27440,7 +27440,7 @@
         <v>0.43835616438356162</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="62">
         <v>41260</v>
       </c>
@@ -27496,7 +27496,7 @@
         <v>0.44186046511627908</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="62">
         <v>41261</v>
       </c>
@@ -27552,7 +27552,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="62">
         <v>41262</v>
       </c>
@@ -27608,7 +27608,7 @@
         <v>0.43537414965986393</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="62">
         <v>41266</v>
       </c>
@@ -27664,7 +27664,7 @@
         <v>0.55980861244019142</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="62">
         <v>41267</v>
       </c>
@@ -27720,7 +27720,7 @@
         <v>0.43956043956043955</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="62">
         <v>41268</v>
       </c>
@@ -27776,7 +27776,7 @@
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="62">
         <v>41269</v>
       </c>
@@ -27832,7 +27832,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="45">
         <v>41595</v>
       </c>
@@ -27881,7 +27881,7 @@
       <c r="N297" s="65"/>
       <c r="O297" s="59"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="45">
         <v>41596</v>
       </c>
@@ -27930,7 +27930,7 @@
       <c r="N298" s="65"/>
       <c r="O298" s="59"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="45">
         <v>41597</v>
       </c>
@@ -27986,7 +27986,7 @@
         <v>0.34666666666666668</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="45">
         <v>41598</v>
       </c>
@@ -28035,7 +28035,7 @@
       <c r="N300" s="65"/>
       <c r="O300" s="59"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="45">
         <v>41602</v>
       </c>
@@ -28091,7 +28091,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="45">
         <v>41603</v>
       </c>
@@ -28147,7 +28147,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="45">
         <v>41604</v>
       </c>
@@ -28203,7 +28203,7 @@
         <v>0.4642857142857143</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="45">
         <v>41605</v>
       </c>
@@ -28252,7 +28252,7 @@
       <c r="N304"/>
       <c r="O304" s="59"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="45">
         <v>41609</v>
       </c>
@@ -28308,7 +28308,7 @@
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="45">
         <v>41610</v>
       </c>
@@ -28364,7 +28364,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="45">
         <v>41611</v>
       </c>
@@ -28420,7 +28420,7 @@
         <v>0.3135593220338983</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="45">
         <v>41612</v>
       </c>
@@ -28469,7 +28469,7 @@
       <c r="N308"/>
       <c r="O308" s="59"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="45">
         <v>41616</v>
       </c>
@@ -28525,7 +28525,7 @@
         <v>0.3707865168539326</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="45">
         <v>41617</v>
       </c>
@@ -28581,7 +28581,7 @@
         <v>0.34134615384615385</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="45">
         <v>41618</v>
       </c>
@@ -28637,7 +28637,7 @@
         <v>0.43575418994413406</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="45">
         <v>41619</v>
       </c>
@@ -28693,7 +28693,7 @@
         <v>0.41414141414141414</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="45">
         <v>41623</v>
       </c>
@@ -28749,7 +28749,7 @@
         <v>0.40465116279069768</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="45">
         <v>41624</v>
       </c>
@@ -28805,7 +28805,7 @@
         <v>0.35135135135135137</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="45">
         <v>41625</v>
       </c>
@@ -28861,7 +28861,7 @@
         <v>0.33653846153846156</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="45">
         <v>41626</v>
       </c>
@@ -28917,7 +28917,7 @@
         <v>0.31073446327683618</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="45">
         <v>41630</v>
       </c>
@@ -28973,7 +28973,7 @@
         <v>0.43629343629343631</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="45">
         <v>41631</v>
       </c>
@@ -29029,7 +29029,7 @@
         <v>0.45627376425855515</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="45">
         <v>41632</v>
       </c>
@@ -29085,7 +29085,7 @@
         <v>0.48979591836734693</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="45">
         <v>41633</v>
       </c>
@@ -29134,7 +29134,7 @@
       <c r="N320"/>
       <c r="O320" s="59"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="45">
         <v>41637</v>
       </c>
@@ -29190,7 +29190,7 @@
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="45">
         <v>41638</v>
       </c>
@@ -29246,7 +29246,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="45">
         <v>41639</v>
       </c>
@@ -29295,7 +29295,7 @@
       <c r="N323"/>
       <c r="O323" s="59"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="45">
         <v>41640</v>
       </c>
@@ -29350,7 +29350,7 @@
         <v>0.23076923076923078</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A325" s="45">
         <v>41959</v>
       </c>
@@ -29396,7 +29396,7 @@
         <v>21.685416666666669</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" s="45">
         <v>41960</v>
       </c>
@@ -29441,8 +29441,9 @@
         <f t="shared" si="61"/>
         <v>21.685416666666669</v>
       </c>
-    </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S326" s="150"/>
+    </row>
+    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" s="45">
         <v>41961</v>
       </c>
@@ -29488,7 +29489,7 @@
         <v>21.685416666666669</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" s="45">
         <v>41962</v>
       </c>
@@ -29534,7 +29535,7 @@
         <v>21.685416666666669</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" s="45">
         <v>41966</v>
       </c>
@@ -29590,7 +29591,7 @@
         <v>0.22807017543859648</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" s="45">
         <v>41967</v>
       </c>
@@ -29646,7 +29647,7 @@
         <v>0.34353741496598639</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" s="45">
         <v>41968</v>
       </c>
@@ -29702,7 +29703,7 @@
         <v>0.3253012048192771</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" s="45">
         <v>41969</v>
       </c>
@@ -29758,7 +29759,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" s="45">
         <v>41973</v>
       </c>
@@ -29814,7 +29815,7 @@
         <v>0.34701492537313433</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" s="45">
         <v>41974</v>
       </c>
@@ -29870,7 +29871,7 @@
         <v>0.35972850678733032</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" s="45">
         <v>41975</v>
       </c>
@@ -29926,7 +29927,7 @@
         <v>0.38793103448275862</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" s="45">
         <v>41976</v>
       </c>
@@ -35041,12 +35042,24 @@
         <v>0.21428571428571427</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="O430" s="66" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O430" xr:uid="{861F2679-1095-4879-AA18-62C5D4DACD98}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="2014"/>
+        <filter val="2015"/>
+        <filter val="2016"/>
+        <filter val="2017"/>
+        <filter val="2018"/>
+        <filter val="2019"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -35174,7 +35187,7 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="145">
+      <c r="B4" s="146">
         <v>28</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -35207,7 +35220,7 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="146"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="19" t="s">
         <v>4</v>
       </c>
@@ -35238,7 +35251,7 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="146"/>
+      <c r="B6" s="147"/>
       <c r="C6" s="19" t="s">
         <v>5</v>
       </c>
@@ -35269,7 +35282,7 @@
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="147"/>
+      <c r="B7" s="148"/>
       <c r="C7" s="24" t="s">
         <v>6</v>
       </c>
@@ -35300,7 +35313,7 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="145">
+      <c r="B8" s="146">
         <v>29</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -35333,7 +35346,7 @@
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="146"/>
+      <c r="B9" s="147"/>
       <c r="C9" s="19" t="s">
         <v>4</v>
       </c>
@@ -35364,7 +35377,7 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="146"/>
+      <c r="B10" s="147"/>
       <c r="C10" s="19" t="s">
         <v>5</v>
       </c>
@@ -35395,7 +35408,7 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="147"/>
+      <c r="B11" s="148"/>
       <c r="C11" s="24" t="s">
         <v>6</v>
       </c>
@@ -35426,7 +35439,7 @@
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="145">
+      <c r="B12" s="146">
         <v>30</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -35459,7 +35472,7 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="146"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="19" t="s">
         <v>4</v>
       </c>
@@ -35490,7 +35503,7 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="146"/>
+      <c r="B14" s="147"/>
       <c r="C14" s="19" t="s">
         <v>5</v>
       </c>
@@ -35521,7 +35534,7 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="147"/>
+      <c r="B15" s="148"/>
       <c r="C15" s="24" t="s">
         <v>6</v>
       </c>
@@ -35552,7 +35565,7 @@
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="145">
+      <c r="B16" s="146">
         <v>31</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -35585,7 +35598,7 @@
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="146"/>
+      <c r="B17" s="147"/>
       <c r="C17" s="19" t="s">
         <v>4</v>
       </c>
@@ -35616,7 +35629,7 @@
       <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="146"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="19" t="s">
         <v>5</v>
       </c>
@@ -35647,7 +35660,7 @@
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="147"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="24" t="s">
         <v>6</v>
       </c>
@@ -35678,7 +35691,7 @@
       <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="145">
+      <c r="B20" s="146">
         <v>32</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -35727,7 +35740,7 @@
       <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="146"/>
+      <c r="B21" s="147"/>
       <c r="C21" s="19" t="s">
         <v>4</v>
       </c>
@@ -35774,7 +35787,7 @@
       <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="146"/>
+      <c r="B22" s="147"/>
       <c r="C22" s="19" t="s">
         <v>5</v>
       </c>
@@ -35813,7 +35826,7 @@
       <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="147"/>
+      <c r="B23" s="148"/>
       <c r="C23" s="24" t="s">
         <v>6</v>
       </c>
@@ -35865,7 +35878,7 @@
       <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="145">
+      <c r="B24" s="146">
         <v>33</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -35922,7 +35935,7 @@
       <c r="A25" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="146"/>
+      <c r="B25" s="147"/>
       <c r="C25" s="19" t="s">
         <v>4</v>
       </c>
@@ -35977,7 +35990,7 @@
       <c r="A26" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="146"/>
+      <c r="B26" s="147"/>
       <c r="C26" s="19" t="s">
         <v>5</v>
       </c>
@@ -36032,7 +36045,7 @@
       <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="147"/>
+      <c r="B27" s="148"/>
       <c r="C27" s="24" t="s">
         <v>6</v>
       </c>
@@ -36084,7 +36097,7 @@
       <c r="A28" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="145">
+      <c r="B28" s="146">
         <v>34</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -36141,7 +36154,7 @@
       <c r="A29" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="146"/>
+      <c r="B29" s="147"/>
       <c r="C29" s="19" t="s">
         <v>4</v>
       </c>
@@ -36196,7 +36209,7 @@
       <c r="A30" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="146"/>
+      <c r="B30" s="147"/>
       <c r="C30" s="19" t="s">
         <v>5</v>
       </c>
@@ -36251,7 +36264,7 @@
       <c r="A31" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="147"/>
+      <c r="B31" s="148"/>
       <c r="C31" s="24" t="s">
         <v>6</v>
       </c>
@@ -36303,7 +36316,7 @@
       <c r="A32" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="145">
+      <c r="B32" s="146">
         <v>35</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -36364,7 +36377,7 @@
       <c r="A33" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="146"/>
+      <c r="B33" s="147"/>
       <c r="C33" s="19" t="s">
         <v>4</v>
       </c>
@@ -36423,7 +36436,7 @@
       <c r="A34" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="146"/>
+      <c r="B34" s="147"/>
       <c r="C34" s="19" t="s">
         <v>5</v>
       </c>
@@ -36482,7 +36495,7 @@
       <c r="A35" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="147"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="24" t="s">
         <v>6</v>
       </c>
@@ -36534,7 +36547,7 @@
       <c r="A36" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="145">
+      <c r="B36" s="146">
         <v>36</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -36595,7 +36608,7 @@
       <c r="A37" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="146"/>
+      <c r="B37" s="147"/>
       <c r="C37" s="19" t="s">
         <v>4</v>
       </c>
@@ -36654,7 +36667,7 @@
       <c r="A38" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="146"/>
+      <c r="B38" s="147"/>
       <c r="C38" s="19" t="s">
         <v>5</v>
       </c>
@@ -36705,7 +36718,7 @@
       <c r="A39" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="147"/>
+      <c r="B39" s="148"/>
       <c r="C39" s="24" t="s">
         <v>6</v>
       </c>
@@ -36757,7 +36770,7 @@
       <c r="A40" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="145">
+      <c r="B40" s="146">
         <v>37</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -36794,7 +36807,7 @@
       <c r="A41" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="146"/>
+      <c r="B41" s="147"/>
       <c r="C41" s="19" t="s">
         <v>4</v>
       </c>
@@ -36829,7 +36842,7 @@
       <c r="A42" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="146"/>
+      <c r="B42" s="147"/>
       <c r="C42" s="19" t="s">
         <v>5</v>
       </c>
@@ -36864,7 +36877,7 @@
       <c r="A43" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="147"/>
+      <c r="B43" s="148"/>
       <c r="C43" s="24" t="s">
         <v>6</v>
       </c>
@@ -36898,7 +36911,7 @@
       <c r="A44" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="145">
+      <c r="B44" s="146">
         <v>38</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -36931,7 +36944,7 @@
       <c r="A45" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="146"/>
+      <c r="B45" s="147"/>
       <c r="C45" s="19" t="s">
         <v>4</v>
       </c>
@@ -36962,7 +36975,7 @@
       <c r="A46" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="146"/>
+      <c r="B46" s="147"/>
       <c r="C46" s="19" t="s">
         <v>5</v>
       </c>
@@ -36993,7 +37006,7 @@
       <c r="A47" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="147"/>
+      <c r="B47" s="148"/>
       <c r="C47" s="24" t="s">
         <v>6</v>
       </c>
@@ -37024,7 +37037,7 @@
       <c r="A48" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="145">
+      <c r="B48" s="146">
         <v>39</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -37057,7 +37070,7 @@
       <c r="A49" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="146"/>
+      <c r="B49" s="147"/>
       <c r="C49" s="19" t="s">
         <v>4</v>
       </c>
@@ -37088,7 +37101,7 @@
       <c r="A50" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="146"/>
+      <c r="B50" s="147"/>
       <c r="C50" s="19" t="s">
         <v>5</v>
       </c>
@@ -37119,7 +37132,7 @@
       <c r="A51" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="147"/>
+      <c r="B51" s="148"/>
       <c r="C51" s="24" t="s">
         <v>6</v>
       </c>
@@ -37150,7 +37163,7 @@
       <c r="A52" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="145">
+      <c r="B52" s="146">
         <v>40</v>
       </c>
       <c r="C52" s="8" t="s">
@@ -37187,7 +37200,7 @@
       <c r="A53" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="146"/>
+      <c r="B53" s="147"/>
       <c r="C53" s="19" t="s">
         <v>4</v>
       </c>
@@ -37222,7 +37235,7 @@
       <c r="A54" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="146"/>
+      <c r="B54" s="147"/>
       <c r="C54" s="19" t="s">
         <v>5</v>
       </c>
@@ -37253,7 +37266,7 @@
       <c r="A55" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="147"/>
+      <c r="B55" s="148"/>
       <c r="C55" s="24" t="s">
         <v>6</v>
       </c>
@@ -37305,7 +37318,7 @@
       <c r="A56" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="145">
+      <c r="B56" s="146">
         <v>41</v>
       </c>
       <c r="C56" s="8" t="s">
@@ -37362,7 +37375,7 @@
       <c r="A57" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="146"/>
+      <c r="B57" s="147"/>
       <c r="C57" s="19" t="s">
         <v>4</v>
       </c>
@@ -37413,7 +37426,7 @@
       <c r="A58" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="146"/>
+      <c r="B58" s="147"/>
       <c r="C58" s="19" t="s">
         <v>5</v>
       </c>
@@ -37460,7 +37473,7 @@
       <c r="A59" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="147"/>
+      <c r="B59" s="148"/>
       <c r="C59" s="24" t="s">
         <v>6</v>
       </c>
@@ -37520,7 +37533,7 @@
       <c r="A60" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="145">
+      <c r="B60" s="146">
         <v>42</v>
       </c>
       <c r="C60" s="8" t="s">
@@ -37577,7 +37590,7 @@
       <c r="A61" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="146"/>
+      <c r="B61" s="147"/>
       <c r="C61" s="19" t="s">
         <v>4</v>
       </c>
@@ -37632,7 +37645,7 @@
       <c r="A62" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="146"/>
+      <c r="B62" s="147"/>
       <c r="C62" s="19" t="s">
         <v>5</v>
       </c>
@@ -37687,7 +37700,7 @@
       <c r="A63" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="147"/>
+      <c r="B63" s="148"/>
       <c r="C63" s="24" t="s">
         <v>6</v>
       </c>
@@ -37759,7 +37772,7 @@
       <c r="A64" t="s">
         <v>12</v>
       </c>
-      <c r="B64" s="146">
+      <c r="B64" s="147">
         <v>43</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -37816,7 +37829,7 @@
       <c r="A65" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="146"/>
+      <c r="B65" s="147"/>
       <c r="C65" s="19" t="s">
         <v>4</v>
       </c>
@@ -37871,7 +37884,7 @@
       <c r="A66" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="146"/>
+      <c r="B66" s="147"/>
       <c r="C66" s="19" t="s">
         <v>5</v>
       </c>
@@ -37926,7 +37939,7 @@
       <c r="A67" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="147"/>
+      <c r="B67" s="148"/>
       <c r="C67" s="24" t="s">
         <v>6</v>
       </c>
@@ -37998,7 +38011,7 @@
       <c r="A68" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="145">
+      <c r="B68" s="146">
         <v>44</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -38059,7 +38072,7 @@
       <c r="A69" t="s">
         <v>12</v>
       </c>
-      <c r="B69" s="146"/>
+      <c r="B69" s="147"/>
       <c r="C69" s="19" t="s">
         <v>4</v>
       </c>
@@ -38118,7 +38131,7 @@
       <c r="A70" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="146"/>
+      <c r="B70" s="147"/>
       <c r="C70" s="19" t="s">
         <v>5</v>
       </c>
@@ -38177,7 +38190,7 @@
       <c r="A71" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="147"/>
+      <c r="B71" s="148"/>
       <c r="C71" s="24" t="s">
         <v>6</v>
       </c>
@@ -38253,7 +38266,7 @@
       <c r="A72" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="145">
+      <c r="B72" s="146">
         <v>45</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -38314,7 +38327,7 @@
       <c r="A73" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="146"/>
+      <c r="B73" s="147"/>
       <c r="C73" s="19" t="s">
         <v>4</v>
       </c>
@@ -38373,7 +38386,7 @@
       <c r="A74" t="s">
         <v>12</v>
       </c>
-      <c r="B74" s="146"/>
+      <c r="B74" s="147"/>
       <c r="C74" s="19" t="s">
         <v>5</v>
       </c>
@@ -38432,7 +38445,7 @@
       <c r="A75" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="147"/>
+      <c r="B75" s="148"/>
       <c r="C75" s="24" t="s">
         <v>6</v>
       </c>
@@ -38508,7 +38521,7 @@
       <c r="A76" t="s">
         <v>12</v>
       </c>
-      <c r="B76" s="145">
+      <c r="B76" s="146">
         <v>46</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -38569,7 +38582,7 @@
       <c r="A77" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="146"/>
+      <c r="B77" s="147"/>
       <c r="C77" s="19" t="s">
         <v>4</v>
       </c>
@@ -38628,7 +38641,7 @@
       <c r="A78" t="s">
         <v>12</v>
       </c>
-      <c r="B78" s="146"/>
+      <c r="B78" s="147"/>
       <c r="C78" s="19" t="s">
         <v>5</v>
       </c>
@@ -38687,7 +38700,7 @@
       <c r="A79" t="s">
         <v>12</v>
       </c>
-      <c r="B79" s="147"/>
+      <c r="B79" s="148"/>
       <c r="C79" s="24" t="s">
         <v>6</v>
       </c>
@@ -38763,7 +38776,7 @@
       <c r="A80" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="145">
+      <c r="B80" s="146">
         <v>47</v>
       </c>
     </row>
@@ -38771,7 +38784,7 @@
       <c r="A81" t="s">
         <v>12</v>
       </c>
-      <c r="B81" s="146"/>
+      <c r="B81" s="147"/>
       <c r="L81" s="88">
         <f>SUM(L4:L79)</f>
         <v>15388.764047961104</v>
@@ -38805,13 +38818,13 @@
       <c r="A82" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="146"/>
+      <c r="B82" s="147"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>12</v>
       </c>
-      <c r="B83" s="146"/>
+      <c r="B83" s="147"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B84" s="140"/>
@@ -39466,6 +39479,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B72:B75"/>
     <mergeCell ref="B48:B51"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B11"/>
@@ -39478,14 +39499,6 @@
     <mergeCell ref="B36:B39"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B72:B75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39660,7 +39673,7 @@
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4" s="145">
+      <c r="A4" s="146">
         <v>28</v>
       </c>
       <c r="B4" s="15"/>
@@ -39677,7 +39690,7 @@
       <c r="N4" s="73"/>
       <c r="O4" s="73"/>
       <c r="P4" s="74"/>
-      <c r="Q4" s="145">
+      <c r="Q4" s="146">
         <v>28</v>
       </c>
       <c r="R4" s="72"/>
@@ -39687,7 +39700,7 @@
       <c r="V4" s="73"/>
       <c r="W4" s="73"/>
       <c r="X4" s="74"/>
-      <c r="Z4" s="145">
+      <c r="Z4" s="146">
         <v>28</v>
       </c>
       <c r="AA4" s="72"/>
@@ -39697,7 +39710,7 @@
       <c r="AE4" s="73"/>
       <c r="AF4" s="73"/>
       <c r="AG4" s="74"/>
-      <c r="AI4" s="145">
+      <c r="AI4" s="146">
         <v>28</v>
       </c>
       <c r="AJ4" s="72"/>
@@ -39707,7 +39720,7 @@
       <c r="AN4" s="73"/>
       <c r="AO4" s="73"/>
       <c r="AP4" s="74"/>
-      <c r="AR4" s="145">
+      <c r="AR4" s="146">
         <v>28</v>
       </c>
       <c r="AS4" s="72"/>
@@ -39719,7 +39732,7 @@
       <c r="AY4" s="74"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="146"/>
+      <c r="A5" s="147"/>
       <c r="B5" s="23"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -39729,13 +39742,13 @@
       <c r="H5" s="18"/>
       <c r="J5" s="75"/>
       <c r="P5" s="76"/>
-      <c r="Q5" s="146"/>
+      <c r="Q5" s="147"/>
       <c r="R5" s="75"/>
       <c r="X5" s="76"/>
-      <c r="Z5" s="146"/>
+      <c r="Z5" s="147"/>
       <c r="AA5" s="75"/>
       <c r="AG5" s="76"/>
-      <c r="AI5" s="146"/>
+      <c r="AI5" s="147"/>
       <c r="AJ5" s="95"/>
       <c r="AK5" s="104"/>
       <c r="AL5" s="104"/>
@@ -39743,7 +39756,7 @@
       <c r="AN5" s="104"/>
       <c r="AO5" s="104"/>
       <c r="AP5" s="110"/>
-      <c r="AR5" s="146"/>
+      <c r="AR5" s="147"/>
       <c r="AS5" s="95"/>
       <c r="AT5" s="104"/>
       <c r="AU5" s="104"/>
@@ -39753,7 +39766,7 @@
       <c r="AY5" s="110"/>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="146"/>
+      <c r="A6" s="147"/>
       <c r="B6" s="23"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -39763,13 +39776,13 @@
       <c r="H6" s="18"/>
       <c r="J6" s="75"/>
       <c r="P6" s="76"/>
-      <c r="Q6" s="146"/>
+      <c r="Q6" s="147"/>
       <c r="R6" s="75"/>
       <c r="X6" s="76"/>
-      <c r="Z6" s="146"/>
+      <c r="Z6" s="147"/>
       <c r="AA6" s="75"/>
       <c r="AG6" s="76"/>
-      <c r="AI6" s="146"/>
+      <c r="AI6" s="147"/>
       <c r="AJ6" s="95"/>
       <c r="AK6" s="104"/>
       <c r="AL6" s="104"/>
@@ -39777,7 +39790,7 @@
       <c r="AN6" s="104"/>
       <c r="AO6" s="104"/>
       <c r="AP6" s="110"/>
-      <c r="AR6" s="146"/>
+      <c r="AR6" s="147"/>
       <c r="AS6" s="95"/>
       <c r="AT6" s="104"/>
       <c r="AU6" s="104"/>
@@ -39787,7 +39800,7 @@
       <c r="AY6" s="110"/>
     </row>
     <row r="7" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="147"/>
+      <c r="A7" s="148"/>
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -39802,7 +39815,7 @@
       <c r="N7" s="78"/>
       <c r="O7" s="78"/>
       <c r="P7" s="79"/>
-      <c r="Q7" s="147"/>
+      <c r="Q7" s="148"/>
       <c r="R7" s="77"/>
       <c r="S7" s="78"/>
       <c r="T7" s="78"/>
@@ -39810,7 +39823,7 @@
       <c r="V7" s="78"/>
       <c r="W7" s="78"/>
       <c r="X7" s="79"/>
-      <c r="Z7" s="147"/>
+      <c r="Z7" s="148"/>
       <c r="AA7" s="77"/>
       <c r="AB7" s="78"/>
       <c r="AC7" s="78"/>
@@ -39818,7 +39831,7 @@
       <c r="AE7" s="78"/>
       <c r="AF7" s="78"/>
       <c r="AG7" s="79"/>
-      <c r="AI7" s="147"/>
+      <c r="AI7" s="148"/>
       <c r="AJ7" s="94"/>
       <c r="AK7" s="103"/>
       <c r="AL7" s="103"/>
@@ -39826,7 +39839,7 @@
       <c r="AN7" s="103"/>
       <c r="AO7" s="103"/>
       <c r="AP7" s="112"/>
-      <c r="AR7" s="147"/>
+      <c r="AR7" s="148"/>
       <c r="AS7" s="94"/>
       <c r="AT7" s="103"/>
       <c r="AU7" s="103"/>
@@ -39836,7 +39849,7 @@
       <c r="AY7" s="112"/>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="145">
+      <c r="A8" s="146">
         <v>29</v>
       </c>
       <c r="B8" s="23"/>
@@ -39853,7 +39866,7 @@
       <c r="N8" s="73"/>
       <c r="O8" s="73"/>
       <c r="P8" s="74"/>
-      <c r="Q8" s="145">
+      <c r="Q8" s="146">
         <v>29</v>
       </c>
       <c r="R8" s="72"/>
@@ -39863,7 +39876,7 @@
       <c r="V8" s="73"/>
       <c r="W8" s="73"/>
       <c r="X8" s="74"/>
-      <c r="Z8" s="145">
+      <c r="Z8" s="146">
         <v>29</v>
       </c>
       <c r="AA8" s="72"/>
@@ -39873,7 +39886,7 @@
       <c r="AE8" s="73"/>
       <c r="AF8" s="73"/>
       <c r="AG8" s="74"/>
-      <c r="AI8" s="145">
+      <c r="AI8" s="146">
         <v>29</v>
       </c>
       <c r="AJ8" s="96"/>
@@ -39883,7 +39896,7 @@
       <c r="AN8" s="105"/>
       <c r="AO8" s="105"/>
       <c r="AP8" s="114"/>
-      <c r="AR8" s="145">
+      <c r="AR8" s="146">
         <v>29</v>
       </c>
       <c r="AS8" s="96"/>
@@ -39895,7 +39908,7 @@
       <c r="AY8" s="114"/>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="146"/>
+      <c r="A9" s="147"/>
       <c r="B9" s="23"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -39905,13 +39918,13 @@
       <c r="H9" s="18"/>
       <c r="J9" s="75"/>
       <c r="P9" s="76"/>
-      <c r="Q9" s="146"/>
+      <c r="Q9" s="147"/>
       <c r="R9" s="75"/>
       <c r="X9" s="76"/>
-      <c r="Z9" s="146"/>
+      <c r="Z9" s="147"/>
       <c r="AA9" s="75"/>
       <c r="AG9" s="76"/>
-      <c r="AI9" s="146"/>
+      <c r="AI9" s="147"/>
       <c r="AJ9" s="95"/>
       <c r="AK9" s="104"/>
       <c r="AL9" s="104"/>
@@ -39919,7 +39932,7 @@
       <c r="AN9" s="104"/>
       <c r="AO9" s="104"/>
       <c r="AP9" s="110"/>
-      <c r="AR9" s="146"/>
+      <c r="AR9" s="147"/>
       <c r="AS9" s="95"/>
       <c r="AT9" s="104"/>
       <c r="AU9" s="104"/>
@@ -39929,7 +39942,7 @@
       <c r="AY9" s="110"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A10" s="146"/>
+      <c r="A10" s="147"/>
       <c r="B10" s="23"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -39939,13 +39952,13 @@
       <c r="H10" s="18"/>
       <c r="J10" s="75"/>
       <c r="P10" s="76"/>
-      <c r="Q10" s="146"/>
+      <c r="Q10" s="147"/>
       <c r="R10" s="75"/>
       <c r="X10" s="76"/>
-      <c r="Z10" s="146"/>
+      <c r="Z10" s="147"/>
       <c r="AA10" s="75"/>
       <c r="AG10" s="76"/>
-      <c r="AI10" s="146"/>
+      <c r="AI10" s="147"/>
       <c r="AJ10" s="95"/>
       <c r="AK10" s="104"/>
       <c r="AL10" s="104"/>
@@ -39953,7 +39966,7 @@
       <c r="AN10" s="104"/>
       <c r="AO10" s="104"/>
       <c r="AP10" s="110"/>
-      <c r="AR10" s="146"/>
+      <c r="AR10" s="147"/>
       <c r="AS10" s="95"/>
       <c r="AT10" s="104"/>
       <c r="AU10" s="104"/>
@@ -39963,7 +39976,7 @@
       <c r="AY10" s="110"/>
     </row>
     <row r="11" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="147"/>
+      <c r="A11" s="148"/>
       <c r="B11" s="23"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -39978,7 +39991,7 @@
       <c r="N11" s="78"/>
       <c r="O11" s="78"/>
       <c r="P11" s="79"/>
-      <c r="Q11" s="147"/>
+      <c r="Q11" s="148"/>
       <c r="R11" s="77"/>
       <c r="S11" s="78"/>
       <c r="T11" s="78"/>
@@ -39986,7 +39999,7 @@
       <c r="V11" s="78"/>
       <c r="W11" s="78"/>
       <c r="X11" s="79"/>
-      <c r="Z11" s="147"/>
+      <c r="Z11" s="148"/>
       <c r="AA11" s="77"/>
       <c r="AB11" s="78"/>
       <c r="AC11" s="78"/>
@@ -39994,7 +40007,7 @@
       <c r="AE11" s="78"/>
       <c r="AF11" s="78"/>
       <c r="AG11" s="79"/>
-      <c r="AI11" s="147"/>
+      <c r="AI11" s="148"/>
       <c r="AJ11" s="94"/>
       <c r="AK11" s="103"/>
       <c r="AL11" s="103"/>
@@ -40002,7 +40015,7 @@
       <c r="AN11" s="103"/>
       <c r="AO11" s="103"/>
       <c r="AP11" s="112"/>
-      <c r="AR11" s="147"/>
+      <c r="AR11" s="148"/>
       <c r="AS11" s="94"/>
       <c r="AT11" s="103"/>
       <c r="AU11" s="103"/>
@@ -40012,7 +40025,7 @@
       <c r="AY11" s="112"/>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A12" s="145">
+      <c r="A12" s="146">
         <v>30</v>
       </c>
       <c r="B12" s="15"/>
@@ -40024,17 +40037,17 @@
       <c r="H12" s="31"/>
       <c r="J12" s="75"/>
       <c r="P12" s="76"/>
-      <c r="Q12" s="145">
+      <c r="Q12" s="146">
         <v>30</v>
       </c>
       <c r="R12" s="75"/>
       <c r="X12" s="76"/>
-      <c r="Z12" s="145">
+      <c r="Z12" s="146">
         <v>30</v>
       </c>
       <c r="AA12" s="75"/>
       <c r="AG12" s="76"/>
-      <c r="AI12" s="145">
+      <c r="AI12" s="146">
         <v>30</v>
       </c>
       <c r="AJ12" s="95"/>
@@ -40044,7 +40057,7 @@
       <c r="AN12" s="104"/>
       <c r="AO12" s="104"/>
       <c r="AP12" s="110"/>
-      <c r="AR12" s="145">
+      <c r="AR12" s="146">
         <v>30</v>
       </c>
       <c r="AS12" s="95"/>
@@ -40056,7 +40069,7 @@
       <c r="AY12" s="110"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A13" s="146"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="23"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -40066,13 +40079,13 @@
       <c r="H13" s="18"/>
       <c r="J13" s="75"/>
       <c r="P13" s="76"/>
-      <c r="Q13" s="146"/>
+      <c r="Q13" s="147"/>
       <c r="R13" s="75"/>
       <c r="X13" s="76"/>
-      <c r="Z13" s="146"/>
+      <c r="Z13" s="147"/>
       <c r="AA13" s="75"/>
       <c r="AG13" s="76"/>
-      <c r="AI13" s="146"/>
+      <c r="AI13" s="147"/>
       <c r="AJ13" s="95"/>
       <c r="AK13" s="104"/>
       <c r="AL13" s="104"/>
@@ -40080,7 +40093,7 @@
       <c r="AN13" s="104"/>
       <c r="AO13" s="104"/>
       <c r="AP13" s="110"/>
-      <c r="AR13" s="146"/>
+      <c r="AR13" s="147"/>
       <c r="AS13" s="95"/>
       <c r="AT13" s="104"/>
       <c r="AU13" s="104"/>
@@ -40090,7 +40103,7 @@
       <c r="AY13" s="110"/>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A14" s="146"/>
+      <c r="A14" s="147"/>
       <c r="B14" s="23"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -40100,13 +40113,13 @@
       <c r="H14" s="18"/>
       <c r="J14" s="75"/>
       <c r="P14" s="76"/>
-      <c r="Q14" s="146"/>
+      <c r="Q14" s="147"/>
       <c r="R14" s="75"/>
       <c r="X14" s="76"/>
-      <c r="Z14" s="146"/>
+      <c r="Z14" s="147"/>
       <c r="AA14" s="75"/>
       <c r="AG14" s="76"/>
-      <c r="AI14" s="146"/>
+      <c r="AI14" s="147"/>
       <c r="AJ14" s="95"/>
       <c r="AK14" s="104"/>
       <c r="AL14" s="104"/>
@@ -40114,7 +40127,7 @@
       <c r="AN14" s="104"/>
       <c r="AO14" s="104"/>
       <c r="AP14" s="110"/>
-      <c r="AR14" s="146"/>
+      <c r="AR14" s="147"/>
       <c r="AS14" s="95"/>
       <c r="AT14" s="104"/>
       <c r="AU14" s="104"/>
@@ -40124,7 +40137,7 @@
       <c r="AY14" s="110"/>
     </row>
     <row r="15" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="147"/>
+      <c r="A15" s="148"/>
       <c r="B15" s="28"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
@@ -40134,13 +40147,13 @@
       <c r="H15" s="30"/>
       <c r="J15" s="75"/>
       <c r="P15" s="76"/>
-      <c r="Q15" s="147"/>
+      <c r="Q15" s="148"/>
       <c r="R15" s="75"/>
       <c r="X15" s="76"/>
-      <c r="Z15" s="147"/>
+      <c r="Z15" s="148"/>
       <c r="AA15" s="75"/>
       <c r="AG15" s="76"/>
-      <c r="AI15" s="147"/>
+      <c r="AI15" s="148"/>
       <c r="AJ15" s="95"/>
       <c r="AK15" s="104"/>
       <c r="AL15" s="104"/>
@@ -40148,7 +40161,7 @@
       <c r="AN15" s="104"/>
       <c r="AO15" s="104"/>
       <c r="AP15" s="110"/>
-      <c r="AR15" s="147"/>
+      <c r="AR15" s="148"/>
       <c r="AS15" s="95"/>
       <c r="AT15" s="104"/>
       <c r="AU15" s="104"/>
@@ -40158,7 +40171,7 @@
       <c r="AY15" s="110"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A16" s="145">
+      <c r="A16" s="146">
         <v>31</v>
       </c>
       <c r="B16" s="23"/>
@@ -40175,7 +40188,7 @@
       <c r="N16" s="73"/>
       <c r="O16" s="73"/>
       <c r="P16" s="74"/>
-      <c r="Q16" s="145">
+      <c r="Q16" s="146">
         <v>31</v>
       </c>
       <c r="R16" s="72"/>
@@ -40185,7 +40198,7 @@
       <c r="V16" s="73"/>
       <c r="W16" s="73"/>
       <c r="X16" s="74"/>
-      <c r="Z16" s="145">
+      <c r="Z16" s="146">
         <v>31</v>
       </c>
       <c r="AA16" s="72"/>
@@ -40195,7 +40208,7 @@
       <c r="AE16" s="73"/>
       <c r="AF16" s="73"/>
       <c r="AG16" s="74"/>
-      <c r="AI16" s="145">
+      <c r="AI16" s="146">
         <v>31</v>
       </c>
       <c r="AJ16" s="96"/>
@@ -40205,7 +40218,7 @@
       <c r="AN16" s="105"/>
       <c r="AO16" s="105"/>
       <c r="AP16" s="114"/>
-      <c r="AR16" s="145">
+      <c r="AR16" s="146">
         <v>31</v>
       </c>
       <c r="AS16" s="96"/>
@@ -40217,7 +40230,7 @@
       <c r="AY16" s="114"/>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A17" s="146"/>
+      <c r="A17" s="147"/>
       <c r="B17" s="23"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -40227,13 +40240,13 @@
       <c r="H17" s="18"/>
       <c r="J17" s="75"/>
       <c r="P17" s="76"/>
-      <c r="Q17" s="146"/>
+      <c r="Q17" s="147"/>
       <c r="R17" s="75"/>
       <c r="X17" s="76"/>
-      <c r="Z17" s="146"/>
+      <c r="Z17" s="147"/>
       <c r="AA17" s="75"/>
       <c r="AG17" s="76"/>
-      <c r="AI17" s="146"/>
+      <c r="AI17" s="147"/>
       <c r="AJ17" s="95"/>
       <c r="AK17" s="104"/>
       <c r="AL17" s="104"/>
@@ -40241,7 +40254,7 @@
       <c r="AN17" s="104"/>
       <c r="AO17" s="104"/>
       <c r="AP17" s="110"/>
-      <c r="AR17" s="146"/>
+      <c r="AR17" s="147"/>
       <c r="AS17" s="95"/>
       <c r="AT17" s="104"/>
       <c r="AU17" s="104"/>
@@ -40251,7 +40264,7 @@
       <c r="AY17" s="110"/>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A18" s="146"/>
+      <c r="A18" s="147"/>
       <c r="B18" s="23"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -40261,13 +40274,13 @@
       <c r="H18" s="18"/>
       <c r="J18" s="75"/>
       <c r="P18" s="76"/>
-      <c r="Q18" s="146"/>
+      <c r="Q18" s="147"/>
       <c r="R18" s="75"/>
       <c r="X18" s="76"/>
-      <c r="Z18" s="146"/>
+      <c r="Z18" s="147"/>
       <c r="AA18" s="75"/>
       <c r="AG18" s="76"/>
-      <c r="AI18" s="146"/>
+      <c r="AI18" s="147"/>
       <c r="AJ18" s="95"/>
       <c r="AK18" s="104"/>
       <c r="AL18" s="104"/>
@@ -40275,7 +40288,7 @@
       <c r="AN18" s="104"/>
       <c r="AO18" s="104"/>
       <c r="AP18" s="110"/>
-      <c r="AR18" s="146"/>
+      <c r="AR18" s="147"/>
       <c r="AS18" s="95"/>
       <c r="AT18" s="104"/>
       <c r="AU18" s="104"/>
@@ -40285,7 +40298,7 @@
       <c r="AY18" s="110"/>
     </row>
     <row r="19" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="147"/>
+      <c r="A19" s="148"/>
       <c r="B19" s="23"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -40300,7 +40313,7 @@
       <c r="N19" s="78"/>
       <c r="O19" s="78"/>
       <c r="P19" s="79"/>
-      <c r="Q19" s="147"/>
+      <c r="Q19" s="148"/>
       <c r="R19" s="77"/>
       <c r="S19" s="78"/>
       <c r="T19" s="78"/>
@@ -40308,7 +40321,7 @@
       <c r="V19" s="78"/>
       <c r="W19" s="78"/>
       <c r="X19" s="79"/>
-      <c r="Z19" s="147"/>
+      <c r="Z19" s="148"/>
       <c r="AA19" s="77"/>
       <c r="AB19" s="78"/>
       <c r="AC19" s="78"/>
@@ -40316,7 +40329,7 @@
       <c r="AE19" s="78"/>
       <c r="AF19" s="78"/>
       <c r="AG19" s="79"/>
-      <c r="AI19" s="147"/>
+      <c r="AI19" s="148"/>
       <c r="AJ19" s="94"/>
       <c r="AK19" s="103"/>
       <c r="AL19" s="103"/>
@@ -40324,7 +40337,7 @@
       <c r="AN19" s="103"/>
       <c r="AO19" s="103"/>
       <c r="AP19" s="112"/>
-      <c r="AR19" s="147"/>
+      <c r="AR19" s="148"/>
       <c r="AS19" s="94"/>
       <c r="AT19" s="103"/>
       <c r="AU19" s="103"/>
@@ -40334,7 +40347,7 @@
       <c r="AY19" s="112"/>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A20" s="145">
+      <c r="A20" s="146">
         <v>32</v>
       </c>
       <c r="B20" s="15"/>
@@ -40354,17 +40367,17 @@
       </c>
       <c r="J20" s="75"/>
       <c r="P20" s="76"/>
-      <c r="Q20" s="145">
+      <c r="Q20" s="146">
         <v>32</v>
       </c>
       <c r="R20" s="75"/>
       <c r="X20" s="76"/>
-      <c r="Z20" s="145">
+      <c r="Z20" s="146">
         <v>32</v>
       </c>
       <c r="AA20" s="75"/>
       <c r="AG20" s="76"/>
-      <c r="AI20" s="145">
+      <c r="AI20" s="146">
         <v>32</v>
       </c>
       <c r="AJ20" s="95"/>
@@ -40374,7 +40387,7 @@
       <c r="AN20" s="104"/>
       <c r="AO20" s="104"/>
       <c r="AP20" s="110"/>
-      <c r="AR20" s="145">
+      <c r="AR20" s="146">
         <v>32</v>
       </c>
       <c r="AS20" s="95"/>
@@ -40386,7 +40399,7 @@
       <c r="AY20" s="110"/>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A21" s="146"/>
+      <c r="A21" s="147"/>
       <c r="B21" s="23"/>
       <c r="C21" s="17">
         <v>3.8701298701298703</v>
@@ -40404,13 +40417,13 @@
       </c>
       <c r="J21" s="75"/>
       <c r="P21" s="76"/>
-      <c r="Q21" s="146"/>
+      <c r="Q21" s="147"/>
       <c r="R21" s="75"/>
       <c r="X21" s="76"/>
-      <c r="Z21" s="146"/>
+      <c r="Z21" s="147"/>
       <c r="AA21" s="75"/>
       <c r="AG21" s="76"/>
-      <c r="AI21" s="146"/>
+      <c r="AI21" s="147"/>
       <c r="AJ21" s="95"/>
       <c r="AK21" s="104"/>
       <c r="AL21" s="104"/>
@@ -40418,7 +40431,7 @@
       <c r="AN21" s="104"/>
       <c r="AO21" s="104"/>
       <c r="AP21" s="110"/>
-      <c r="AR21" s="146"/>
+      <c r="AR21" s="147"/>
       <c r="AS21" s="95"/>
       <c r="AT21" s="104"/>
       <c r="AU21" s="104"/>
@@ -40428,7 +40441,7 @@
       <c r="AY21" s="110"/>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A22" s="146"/>
+      <c r="A22" s="147"/>
       <c r="B22" s="23"/>
       <c r="C22" s="17">
         <v>5.5</v>
@@ -40442,13 +40455,13 @@
       </c>
       <c r="J22" s="75"/>
       <c r="P22" s="76"/>
-      <c r="Q22" s="146"/>
+      <c r="Q22" s="147"/>
       <c r="R22" s="75"/>
       <c r="X22" s="76"/>
-      <c r="Z22" s="146"/>
+      <c r="Z22" s="147"/>
       <c r="AA22" s="75"/>
       <c r="AG22" s="76"/>
-      <c r="AI22" s="146"/>
+      <c r="AI22" s="147"/>
       <c r="AJ22" s="95"/>
       <c r="AK22" s="104"/>
       <c r="AL22" s="104"/>
@@ -40456,7 +40469,7 @@
       <c r="AN22" s="104"/>
       <c r="AO22" s="104"/>
       <c r="AP22" s="110"/>
-      <c r="AR22" s="146"/>
+      <c r="AR22" s="147"/>
       <c r="AS22" s="95"/>
       <c r="AT22" s="104"/>
       <c r="AU22" s="104"/>
@@ -40466,7 +40479,7 @@
       <c r="AY22" s="110"/>
     </row>
     <row r="23" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="147"/>
+      <c r="A23" s="148"/>
       <c r="B23" s="28"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
@@ -40489,7 +40502,7 @@
       <c r="P23" s="76">
         <v>0</v>
       </c>
-      <c r="Q23" s="147"/>
+      <c r="Q23" s="148"/>
       <c r="R23" s="87">
         <f>SUM(B20:B23)*J23</f>
         <v>0</v>
@@ -40510,13 +40523,13 @@
         <f>SUM(H20:H23)*P23</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="147"/>
+      <c r="Z23" s="148"/>
       <c r="AA23" s="87"/>
       <c r="AB23" s="88"/>
       <c r="AC23" s="88"/>
       <c r="AD23" s="88"/>
       <c r="AG23" s="90"/>
-      <c r="AI23" s="147"/>
+      <c r="AI23" s="148"/>
       <c r="AJ23" s="95">
         <f>SUM(B20:B23)-R23</f>
         <v>0</v>
@@ -40545,7 +40558,7 @@
         <f t="shared" ref="AP23" si="5">SUM(H20:H23)-X23</f>
         <v>3.7583333333333333</v>
       </c>
-      <c r="AR23" s="147"/>
+      <c r="AR23" s="148"/>
       <c r="AS23" s="141">
         <f t="shared" ref="AS23:AY23" si="6">AJ23/AJ$81</f>
         <v>0</v>
@@ -40576,7 +40589,7 @@
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A24" s="145">
+      <c r="A24" s="146">
         <v>33</v>
       </c>
       <c r="B24" s="12">
@@ -40605,7 +40618,7 @@
       <c r="N24" s="73"/>
       <c r="O24" s="73"/>
       <c r="P24" s="74"/>
-      <c r="Q24" s="145">
+      <c r="Q24" s="146">
         <v>33</v>
       </c>
       <c r="R24" s="72"/>
@@ -40615,7 +40628,7 @@
       <c r="V24" s="73"/>
       <c r="W24" s="73"/>
       <c r="X24" s="74"/>
-      <c r="Z24" s="145">
+      <c r="Z24" s="146">
         <v>33</v>
       </c>
       <c r="AA24" s="72"/>
@@ -40625,7 +40638,7 @@
       <c r="AE24" s="73"/>
       <c r="AF24" s="73"/>
       <c r="AG24" s="74"/>
-      <c r="AI24" s="145">
+      <c r="AI24" s="146">
         <v>33</v>
       </c>
       <c r="AJ24" s="96"/>
@@ -40635,7 +40648,7 @@
       <c r="AN24" s="105"/>
       <c r="AO24" s="105"/>
       <c r="AP24" s="114"/>
-      <c r="AR24" s="145">
+      <c r="AR24" s="146">
         <v>33</v>
       </c>
       <c r="AS24" s="121"/>
@@ -40647,7 +40660,7 @@
       <c r="AY24" s="123"/>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A25" s="146"/>
+      <c r="A25" s="147"/>
       <c r="B25" s="12">
         <v>47.883858267716541</v>
       </c>
@@ -40672,13 +40685,13 @@
       <c r="L25" s="82"/>
       <c r="M25" s="82"/>
       <c r="P25" s="76"/>
-      <c r="Q25" s="146"/>
+      <c r="Q25" s="147"/>
       <c r="R25" s="75"/>
       <c r="X25" s="76"/>
-      <c r="Z25" s="146"/>
+      <c r="Z25" s="147"/>
       <c r="AA25" s="75"/>
       <c r="AG25" s="76"/>
-      <c r="AI25" s="146"/>
+      <c r="AI25" s="147"/>
       <c r="AJ25" s="95"/>
       <c r="AK25" s="104"/>
       <c r="AL25" s="104"/>
@@ -40686,7 +40699,7 @@
       <c r="AN25" s="104"/>
       <c r="AO25" s="104"/>
       <c r="AP25" s="110"/>
-      <c r="AR25" s="146"/>
+      <c r="AR25" s="147"/>
       <c r="AS25" s="124"/>
       <c r="AT25" s="125"/>
       <c r="AU25" s="125"/>
@@ -40696,7 +40709,7 @@
       <c r="AY25" s="126"/>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A26" s="146"/>
+      <c r="A26" s="147"/>
       <c r="B26" s="12">
         <v>20.683257918552034</v>
       </c>
@@ -40721,13 +40734,13 @@
       <c r="L26" s="82"/>
       <c r="M26" s="82"/>
       <c r="P26" s="76"/>
-      <c r="Q26" s="146"/>
+      <c r="Q26" s="147"/>
       <c r="R26" s="75"/>
       <c r="X26" s="76"/>
-      <c r="Z26" s="146"/>
+      <c r="Z26" s="147"/>
       <c r="AA26" s="75"/>
       <c r="AG26" s="76"/>
-      <c r="AI26" s="146"/>
+      <c r="AI26" s="147"/>
       <c r="AJ26" s="95"/>
       <c r="AK26" s="104"/>
       <c r="AL26" s="104"/>
@@ -40735,7 +40748,7 @@
       <c r="AN26" s="104"/>
       <c r="AO26" s="104"/>
       <c r="AP26" s="110"/>
-      <c r="AR26" s="146"/>
+      <c r="AR26" s="147"/>
       <c r="AS26" s="124"/>
       <c r="AT26" s="125"/>
       <c r="AU26" s="125"/>
@@ -40745,7 +40758,7 @@
       <c r="AY26" s="126"/>
     </row>
     <row r="27" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="147"/>
+      <c r="A27" s="148"/>
       <c r="B27" s="12"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -40772,7 +40785,7 @@
       <c r="P27" s="79">
         <v>0.1</v>
       </c>
-      <c r="Q27" s="147"/>
+      <c r="Q27" s="148"/>
       <c r="R27" s="94">
         <f>SUM(B24:B27)*J27</f>
         <v>7.6292118000527669</v>
@@ -40798,7 +40811,7 @@
         <f>SUM(H24:H27)*P27</f>
         <v>1.3970676691729325</v>
       </c>
-      <c r="Z27" s="147"/>
+      <c r="Z27" s="148"/>
       <c r="AA27" s="91">
         <f t="shared" ref="AA27:AG27" si="7">R27/R$81</f>
         <v>5.877799056261802E-3</v>
@@ -40827,7 +40840,7 @@
         <f t="shared" si="7"/>
         <v>1.4380432719112636E-3</v>
       </c>
-      <c r="AI27" s="147"/>
+      <c r="AI27" s="148"/>
       <c r="AJ27" s="94">
         <f>SUM(B24:B27)-R27</f>
         <v>83.921329800580438</v>
@@ -40856,7 +40869,7 @@
         <f t="shared" si="8"/>
         <v>12.573609022556392</v>
       </c>
-      <c r="AR27" s="147"/>
+      <c r="AR27" s="148"/>
       <c r="AS27" s="127">
         <f t="shared" ref="AS27:AY27" si="9">AJ27/AJ$81</f>
         <v>0.14287416096506231</v>
@@ -40887,7 +40900,7 @@
       </c>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A28" s="145">
+      <c r="A28" s="146">
         <v>34</v>
       </c>
       <c r="B28" s="34">
@@ -40914,7 +40927,7 @@
       <c r="L28" s="82"/>
       <c r="M28" s="82"/>
       <c r="P28" s="76"/>
-      <c r="Q28" s="145">
+      <c r="Q28" s="146">
         <v>34</v>
       </c>
       <c r="R28" s="95"/>
@@ -40923,7 +40936,7 @@
       <c r="U28" s="104"/>
       <c r="V28" s="104"/>
       <c r="X28" s="110"/>
-      <c r="Z28" s="145">
+      <c r="Z28" s="146">
         <v>34</v>
       </c>
       <c r="AA28" s="92"/>
@@ -40933,7 +40946,7 @@
       <c r="AE28" s="101"/>
       <c r="AF28" s="101"/>
       <c r="AG28" s="109"/>
-      <c r="AI28" s="145">
+      <c r="AI28" s="146">
         <v>34</v>
       </c>
       <c r="AJ28" s="95"/>
@@ -40943,7 +40956,7 @@
       <c r="AN28" s="104"/>
       <c r="AO28" s="104"/>
       <c r="AP28" s="110"/>
-      <c r="AR28" s="145">
+      <c r="AR28" s="146">
         <v>34</v>
       </c>
       <c r="AS28" s="124"/>
@@ -40955,7 +40968,7 @@
       <c r="AY28" s="126"/>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A29" s="146"/>
+      <c r="A29" s="147"/>
       <c r="B29" s="12">
         <v>48.67289719626168</v>
       </c>
@@ -40980,14 +40993,14 @@
       <c r="L29" s="82"/>
       <c r="M29" s="82"/>
       <c r="P29" s="76"/>
-      <c r="Q29" s="146"/>
+      <c r="Q29" s="147"/>
       <c r="R29" s="95"/>
       <c r="S29" s="104"/>
       <c r="T29" s="104"/>
       <c r="U29" s="104"/>
       <c r="V29" s="104"/>
       <c r="X29" s="110"/>
-      <c r="Z29" s="146"/>
+      <c r="Z29" s="147"/>
       <c r="AA29" s="92"/>
       <c r="AB29" s="101"/>
       <c r="AC29" s="101"/>
@@ -40995,7 +41008,7 @@
       <c r="AE29" s="101"/>
       <c r="AF29" s="101"/>
       <c r="AG29" s="109"/>
-      <c r="AI29" s="146"/>
+      <c r="AI29" s="147"/>
       <c r="AJ29" s="95"/>
       <c r="AK29" s="104"/>
       <c r="AL29" s="104"/>
@@ -41003,7 +41016,7 @@
       <c r="AN29" s="104"/>
       <c r="AO29" s="104"/>
       <c r="AP29" s="110"/>
-      <c r="AR29" s="146"/>
+      <c r="AR29" s="147"/>
       <c r="AS29" s="124"/>
       <c r="AT29" s="125"/>
       <c r="AU29" s="125"/>
@@ -41013,7 +41026,7 @@
       <c r="AY29" s="126"/>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A30" s="146"/>
+      <c r="A30" s="147"/>
       <c r="B30" s="12">
         <v>36.862903225806448</v>
       </c>
@@ -41038,14 +41051,14 @@
       <c r="L30" s="82"/>
       <c r="M30" s="82"/>
       <c r="P30" s="76"/>
-      <c r="Q30" s="146"/>
+      <c r="Q30" s="147"/>
       <c r="R30" s="95"/>
       <c r="S30" s="104"/>
       <c r="T30" s="104"/>
       <c r="U30" s="104"/>
       <c r="V30" s="104"/>
       <c r="X30" s="110"/>
-      <c r="Z30" s="146"/>
+      <c r="Z30" s="147"/>
       <c r="AA30" s="92"/>
       <c r="AB30" s="101"/>
       <c r="AC30" s="101"/>
@@ -41053,7 +41066,7 @@
       <c r="AE30" s="101"/>
       <c r="AF30" s="101"/>
       <c r="AG30" s="109"/>
-      <c r="AI30" s="146"/>
+      <c r="AI30" s="147"/>
       <c r="AJ30" s="95"/>
       <c r="AK30" s="104"/>
       <c r="AL30" s="104"/>
@@ -41061,7 +41074,7 @@
       <c r="AN30" s="104"/>
       <c r="AO30" s="104"/>
       <c r="AP30" s="110"/>
-      <c r="AR30" s="146"/>
+      <c r="AR30" s="147"/>
       <c r="AS30" s="124"/>
       <c r="AT30" s="125"/>
       <c r="AU30" s="125"/>
@@ -41071,7 +41084,7 @@
       <c r="AY30" s="126"/>
     </row>
     <row r="31" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="147"/>
+      <c r="A31" s="148"/>
       <c r="B31" s="36"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
@@ -41097,7 +41110,7 @@
       <c r="P31" s="80">
         <v>0.16216216216216217</v>
       </c>
-      <c r="Q31" s="147"/>
+      <c r="Q31" s="148"/>
       <c r="R31" s="95">
         <f>SUM(B28:B31)*J31</f>
         <v>27.441144897459399</v>
@@ -41123,7 +41136,7 @@
         <f>SUM(H28:H31)*P31</f>
         <v>8.1645741409216352</v>
       </c>
-      <c r="Z31" s="147"/>
+      <c r="Z31" s="148"/>
       <c r="AA31" s="92">
         <f t="shared" ref="AA31:AG31" si="10">R31/R$81</f>
         <v>2.1141572656288639E-2</v>
@@ -41152,7 +41165,7 @@
         <f t="shared" si="10"/>
         <v>8.4040388096045127E-3</v>
       </c>
-      <c r="AI31" s="147"/>
+      <c r="AI31" s="148"/>
       <c r="AJ31" s="95">
         <f>SUM(B28:B31)-R31</f>
         <v>148.96621515763624</v>
@@ -41181,7 +41194,7 @@
         <f t="shared" si="11"/>
         <v>42.183633061428445</v>
       </c>
-      <c r="AR31" s="147"/>
+      <c r="AR31" s="148"/>
       <c r="AS31" s="124">
         <f t="shared" ref="AS31:AY31" si="12">AJ31/AJ$81</f>
         <v>0.25361160331185578</v>
@@ -41212,7 +41225,7 @@
       </c>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A32" s="145">
+      <c r="A32" s="146">
         <v>35</v>
       </c>
       <c r="B32" s="12">
@@ -41243,7 +41256,7 @@
       <c r="N32" s="73"/>
       <c r="O32" s="73"/>
       <c r="P32" s="74"/>
-      <c r="Q32" s="145">
+      <c r="Q32" s="146">
         <v>35</v>
       </c>
       <c r="R32" s="96"/>
@@ -41253,7 +41266,7 @@
       <c r="V32" s="105"/>
       <c r="W32" s="105"/>
       <c r="X32" s="114"/>
-      <c r="Z32" s="145">
+      <c r="Z32" s="146">
         <v>35</v>
       </c>
       <c r="AA32" s="93"/>
@@ -41263,7 +41276,7 @@
       <c r="AE32" s="102"/>
       <c r="AF32" s="102"/>
       <c r="AG32" s="113"/>
-      <c r="AI32" s="145">
+      <c r="AI32" s="146">
         <v>35</v>
       </c>
       <c r="AJ32" s="96"/>
@@ -41273,7 +41286,7 @@
       <c r="AN32" s="105"/>
       <c r="AO32" s="105"/>
       <c r="AP32" s="114"/>
-      <c r="AR32" s="145">
+      <c r="AR32" s="146">
         <v>35</v>
       </c>
       <c r="AS32" s="121"/>
@@ -41285,7 +41298,7 @@
       <c r="AY32" s="123"/>
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A33" s="146"/>
+      <c r="A33" s="147"/>
       <c r="B33" s="12">
         <v>112.67267683772538</v>
       </c>
@@ -41312,7 +41325,7 @@
       <c r="L33" s="82"/>
       <c r="M33" s="82"/>
       <c r="P33" s="76"/>
-      <c r="Q33" s="146"/>
+      <c r="Q33" s="147"/>
       <c r="R33" s="95"/>
       <c r="S33" s="104"/>
       <c r="T33" s="104"/>
@@ -41320,7 +41333,7 @@
       <c r="V33" s="104"/>
       <c r="W33" s="104"/>
       <c r="X33" s="110"/>
-      <c r="Z33" s="146"/>
+      <c r="Z33" s="147"/>
       <c r="AA33" s="92"/>
       <c r="AB33" s="101"/>
       <c r="AC33" s="101"/>
@@ -41328,7 +41341,7 @@
       <c r="AE33" s="101"/>
       <c r="AF33" s="101"/>
       <c r="AG33" s="109"/>
-      <c r="AI33" s="146"/>
+      <c r="AI33" s="147"/>
       <c r="AJ33" s="95"/>
       <c r="AK33" s="104"/>
       <c r="AL33" s="104"/>
@@ -41336,7 +41349,7 @@
       <c r="AN33" s="104"/>
       <c r="AO33" s="104"/>
       <c r="AP33" s="110"/>
-      <c r="AR33" s="146"/>
+      <c r="AR33" s="147"/>
       <c r="AS33" s="124"/>
       <c r="AT33" s="125"/>
       <c r="AU33" s="125"/>
@@ -41346,7 +41359,7 @@
       <c r="AY33" s="126"/>
     </row>
     <row r="34" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A34" s="146"/>
+      <c r="A34" s="147"/>
       <c r="B34" s="12">
         <v>75.211678832116789</v>
       </c>
@@ -41373,7 +41386,7 @@
       <c r="L34" s="82"/>
       <c r="M34" s="82"/>
       <c r="P34" s="76"/>
-      <c r="Q34" s="146"/>
+      <c r="Q34" s="147"/>
       <c r="R34" s="95"/>
       <c r="S34" s="104"/>
       <c r="T34" s="104"/>
@@ -41381,7 +41394,7 @@
       <c r="V34" s="104"/>
       <c r="W34" s="104"/>
       <c r="X34" s="110"/>
-      <c r="Z34" s="146"/>
+      <c r="Z34" s="147"/>
       <c r="AA34" s="92"/>
       <c r="AB34" s="101"/>
       <c r="AC34" s="101"/>
@@ -41389,7 +41402,7 @@
       <c r="AE34" s="101"/>
       <c r="AF34" s="101"/>
       <c r="AG34" s="109"/>
-      <c r="AI34" s="146"/>
+      <c r="AI34" s="147"/>
       <c r="AJ34" s="95"/>
       <c r="AK34" s="104"/>
       <c r="AL34" s="104"/>
@@ -41397,7 +41410,7 @@
       <c r="AN34" s="104"/>
       <c r="AO34" s="104"/>
       <c r="AP34" s="110"/>
-      <c r="AR34" s="146"/>
+      <c r="AR34" s="147"/>
       <c r="AS34" s="124"/>
       <c r="AT34" s="125"/>
       <c r="AU34" s="125"/>
@@ -41407,7 +41420,7 @@
       <c r="AY34" s="126"/>
     </row>
     <row r="35" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="147"/>
+      <c r="A35" s="148"/>
       <c r="B35" s="12"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -41436,7 +41449,7 @@
       <c r="P35" s="79">
         <v>0.2978723404255319</v>
       </c>
-      <c r="Q35" s="147"/>
+      <c r="Q35" s="148"/>
       <c r="R35" s="94">
         <f t="shared" ref="R35:X35" si="13">SUM(B32:B35)*J35</f>
         <v>53.844738326200009</v>
@@ -41465,7 +41478,7 @@
         <f t="shared" si="13"/>
         <v>22.803233462559909</v>
       </c>
-      <c r="Z35" s="147"/>
+      <c r="Z35" s="148"/>
       <c r="AA35" s="91">
         <f t="shared" ref="AA35:AG35" si="14">R35/R$81</f>
         <v>4.1483781078959309E-2</v>
@@ -41494,7 +41507,7 @@
         <f t="shared" si="14"/>
         <v>2.3472045901734333E-2</v>
       </c>
-      <c r="AI35" s="147"/>
+      <c r="AI35" s="148"/>
       <c r="AJ35" s="94">
         <f>SUM(B32:B35)-R35</f>
         <v>187.03961734364213</v>
@@ -41523,7 +41536,7 @@
         <f t="shared" si="15"/>
         <v>53.750478876034073</v>
       </c>
-      <c r="AR35" s="147"/>
+      <c r="AR35" s="148"/>
       <c r="AS35" s="127">
         <f t="shared" ref="AS35:AY35" si="16">AJ35/AJ$81</f>
         <v>0.31843070717182986</v>
@@ -41554,7 +41567,7 @@
       </c>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A36" s="145">
+      <c r="A36" s="146">
         <v>36</v>
       </c>
       <c r="B36" s="34">
@@ -41583,7 +41596,7 @@
       <c r="L36" s="82"/>
       <c r="M36" s="82"/>
       <c r="P36" s="76"/>
-      <c r="Q36" s="145">
+      <c r="Q36" s="146">
         <v>36</v>
       </c>
       <c r="R36" s="95"/>
@@ -41593,7 +41606,7 @@
       <c r="V36" s="104"/>
       <c r="W36" s="104"/>
       <c r="X36" s="110"/>
-      <c r="Z36" s="145">
+      <c r="Z36" s="146">
         <v>36</v>
       </c>
       <c r="AA36" s="92"/>
@@ -41603,7 +41616,7 @@
       <c r="AE36" s="101"/>
       <c r="AF36" s="101"/>
       <c r="AG36" s="109"/>
-      <c r="AI36" s="145">
+      <c r="AI36" s="146">
         <v>36</v>
       </c>
       <c r="AJ36" s="95"/>
@@ -41613,7 +41626,7 @@
       <c r="AN36" s="104"/>
       <c r="AO36" s="104"/>
       <c r="AP36" s="110"/>
-      <c r="AR36" s="145">
+      <c r="AR36" s="146">
         <v>36</v>
       </c>
       <c r="AS36" s="124"/>
@@ -41625,7 +41638,7 @@
       <c r="AY36" s="126"/>
     </row>
     <row r="37" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A37" s="146"/>
+      <c r="A37" s="147"/>
       <c r="B37" s="12">
         <v>74.378378378378386</v>
       </c>
@@ -41652,7 +41665,7 @@
       <c r="L37" s="82"/>
       <c r="M37" s="82"/>
       <c r="P37" s="76"/>
-      <c r="Q37" s="146"/>
+      <c r="Q37" s="147"/>
       <c r="R37" s="95"/>
       <c r="S37" s="104"/>
       <c r="T37" s="104"/>
@@ -41660,7 +41673,7 @@
       <c r="V37" s="104"/>
       <c r="W37" s="104"/>
       <c r="X37" s="110"/>
-      <c r="Z37" s="146"/>
+      <c r="Z37" s="147"/>
       <c r="AA37" s="92"/>
       <c r="AB37" s="101"/>
       <c r="AC37" s="101"/>
@@ -41668,7 +41681,7 @@
       <c r="AE37" s="101"/>
       <c r="AF37" s="101"/>
       <c r="AG37" s="109"/>
-      <c r="AI37" s="146"/>
+      <c r="AI37" s="147"/>
       <c r="AJ37" s="95"/>
       <c r="AK37" s="104"/>
       <c r="AL37" s="104"/>
@@ -41676,7 +41689,7 @@
       <c r="AN37" s="104"/>
       <c r="AO37" s="104"/>
       <c r="AP37" s="110"/>
-      <c r="AR37" s="146"/>
+      <c r="AR37" s="147"/>
       <c r="AS37" s="124"/>
       <c r="AT37" s="125"/>
       <c r="AU37" s="125"/>
@@ -41686,7 +41699,7 @@
       <c r="AY37" s="126"/>
     </row>
     <row r="38" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A38" s="146"/>
+      <c r="A38" s="147"/>
       <c r="B38" s="12">
         <v>52.627118644067792</v>
       </c>
@@ -41709,7 +41722,7 @@
       <c r="L38" s="82"/>
       <c r="M38" s="82"/>
       <c r="P38" s="76"/>
-      <c r="Q38" s="146"/>
+      <c r="Q38" s="147"/>
       <c r="R38" s="95"/>
       <c r="S38" s="104"/>
       <c r="T38" s="104"/>
@@ -41717,7 +41730,7 @@
       <c r="V38" s="104"/>
       <c r="W38" s="104"/>
       <c r="X38" s="110"/>
-      <c r="Z38" s="146"/>
+      <c r="Z38" s="147"/>
       <c r="AA38" s="92"/>
       <c r="AB38" s="101"/>
       <c r="AC38" s="101"/>
@@ -41725,7 +41738,7 @@
       <c r="AE38" s="101"/>
       <c r="AF38" s="101"/>
       <c r="AG38" s="109"/>
-      <c r="AI38" s="146"/>
+      <c r="AI38" s="147"/>
       <c r="AJ38" s="95"/>
       <c r="AK38" s="104"/>
       <c r="AL38" s="104"/>
@@ -41733,7 +41746,7 @@
       <c r="AN38" s="104"/>
       <c r="AO38" s="104"/>
       <c r="AP38" s="110"/>
-      <c r="AR38" s="146"/>
+      <c r="AR38" s="147"/>
       <c r="AS38" s="124"/>
       <c r="AT38" s="125"/>
       <c r="AU38" s="125"/>
@@ -41743,7 +41756,7 @@
       <c r="AY38" s="126"/>
     </row>
     <row r="39" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="147"/>
+      <c r="A39" s="148"/>
       <c r="B39" s="36"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
@@ -41772,7 +41785,7 @@
       <c r="P39" s="76">
         <v>0.49541284403669728</v>
       </c>
-      <c r="Q39" s="147"/>
+      <c r="Q39" s="148"/>
       <c r="R39" s="95">
         <f t="shared" ref="R39:X39" si="17">SUM(B36:B39)*J39</f>
         <v>78.272349665319823</v>
@@ -41801,7 +41814,7 @@
         <f t="shared" si="17"/>
         <v>104.44344578079347</v>
       </c>
-      <c r="Z39" s="147"/>
+      <c r="Z39" s="148"/>
       <c r="AA39" s="92">
         <f t="shared" ref="AA39:AG39" si="18">R39/R$81</f>
         <v>6.0303627039300256E-2</v>
@@ -41830,7 +41843,7 @@
         <f t="shared" si="18"/>
         <v>0.10750674274010953</v>
       </c>
-      <c r="AI39" s="147"/>
+      <c r="AI39" s="148"/>
       <c r="AJ39" s="95">
         <f>SUM(B36:B39)-R39</f>
         <v>107.10953112096398</v>
@@ -41859,7 +41872,7 @@
         <f t="shared" si="19"/>
         <v>106.37758366562298</v>
       </c>
-      <c r="AR39" s="147"/>
+      <c r="AR39" s="148"/>
       <c r="AS39" s="124">
         <f t="shared" ref="AS39:AY39" si="20">AJ39/AJ$81</f>
         <v>0.18235154789173891</v>
@@ -41890,7 +41903,7 @@
       </c>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A40" s="145">
+      <c r="A40" s="146">
         <v>37</v>
       </c>
       <c r="B40" s="12"/>
@@ -41909,7 +41922,7 @@
       <c r="N40" s="73"/>
       <c r="O40" s="73"/>
       <c r="P40" s="74"/>
-      <c r="Q40" s="145">
+      <c r="Q40" s="146">
         <v>37</v>
       </c>
       <c r="R40" s="96"/>
@@ -41919,7 +41932,7 @@
       <c r="V40" s="105"/>
       <c r="W40" s="73"/>
       <c r="X40" s="74"/>
-      <c r="Z40" s="145">
+      <c r="Z40" s="146">
         <v>37</v>
       </c>
       <c r="AA40" s="96"/>
@@ -41929,7 +41942,7 @@
       <c r="AE40" s="105"/>
       <c r="AF40" s="73"/>
       <c r="AG40" s="74"/>
-      <c r="AI40" s="145">
+      <c r="AI40" s="146">
         <v>37</v>
       </c>
       <c r="AJ40" s="96"/>
@@ -41939,7 +41952,7 @@
       <c r="AN40" s="105"/>
       <c r="AO40" s="105"/>
       <c r="AP40" s="114"/>
-      <c r="AR40" s="145">
+      <c r="AR40" s="146">
         <v>37</v>
       </c>
       <c r="AS40" s="121"/>
@@ -41951,7 +41964,7 @@
       <c r="AY40" s="123"/>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A41" s="146"/>
+      <c r="A41" s="147"/>
       <c r="B41" s="12"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -41966,21 +41979,21 @@
       <c r="L41" s="82"/>
       <c r="M41" s="82"/>
       <c r="P41" s="76"/>
-      <c r="Q41" s="146"/>
+      <c r="Q41" s="147"/>
       <c r="R41" s="95"/>
       <c r="S41" s="104"/>
       <c r="T41" s="104"/>
       <c r="U41" s="104"/>
       <c r="V41" s="104"/>
       <c r="X41" s="76"/>
-      <c r="Z41" s="146"/>
+      <c r="Z41" s="147"/>
       <c r="AA41" s="95"/>
       <c r="AB41" s="104"/>
       <c r="AC41" s="104"/>
       <c r="AD41" s="104"/>
       <c r="AE41" s="104"/>
       <c r="AG41" s="76"/>
-      <c r="AI41" s="146"/>
+      <c r="AI41" s="147"/>
       <c r="AJ41" s="95"/>
       <c r="AK41" s="104"/>
       <c r="AL41" s="104"/>
@@ -41988,7 +42001,7 @@
       <c r="AN41" s="104"/>
       <c r="AO41" s="104"/>
       <c r="AP41" s="110"/>
-      <c r="AR41" s="146"/>
+      <c r="AR41" s="147"/>
       <c r="AS41" s="124"/>
       <c r="AT41" s="125"/>
       <c r="AU41" s="125"/>
@@ -41998,7 +42011,7 @@
       <c r="AY41" s="126"/>
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A42" s="146"/>
+      <c r="A42" s="147"/>
       <c r="B42" s="12"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
@@ -42013,21 +42026,21 @@
       <c r="L42" s="82"/>
       <c r="M42" s="82"/>
       <c r="P42" s="76"/>
-      <c r="Q42" s="146"/>
+      <c r="Q42" s="147"/>
       <c r="R42" s="95"/>
       <c r="S42" s="104"/>
       <c r="T42" s="104"/>
       <c r="U42" s="104"/>
       <c r="V42" s="104"/>
       <c r="X42" s="76"/>
-      <c r="Z42" s="146"/>
+      <c r="Z42" s="147"/>
       <c r="AA42" s="95"/>
       <c r="AB42" s="104"/>
       <c r="AC42" s="104"/>
       <c r="AD42" s="104"/>
       <c r="AE42" s="104"/>
       <c r="AG42" s="76"/>
-      <c r="AI42" s="146"/>
+      <c r="AI42" s="147"/>
       <c r="AJ42" s="95"/>
       <c r="AK42" s="104"/>
       <c r="AL42" s="104"/>
@@ -42035,7 +42048,7 @@
       <c r="AN42" s="104"/>
       <c r="AO42" s="104"/>
       <c r="AP42" s="110"/>
-      <c r="AR42" s="146"/>
+      <c r="AR42" s="147"/>
       <c r="AS42" s="124"/>
       <c r="AT42" s="125"/>
       <c r="AU42" s="125"/>
@@ -42045,7 +42058,7 @@
       <c r="AY42" s="126"/>
     </row>
     <row r="43" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="147"/>
+      <c r="A43" s="148"/>
       <c r="B43" s="12"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
@@ -42070,7 +42083,7 @@
       </c>
       <c r="O43" s="78"/>
       <c r="P43" s="79"/>
-      <c r="Q43" s="147"/>
+      <c r="Q43" s="148"/>
       <c r="R43" s="94"/>
       <c r="S43" s="103"/>
       <c r="T43" s="103"/>
@@ -42081,7 +42094,7 @@
       </c>
       <c r="W43" s="78"/>
       <c r="X43" s="79"/>
-      <c r="Z43" s="147"/>
+      <c r="Z43" s="148"/>
       <c r="AA43" s="94"/>
       <c r="AB43" s="103"/>
       <c r="AC43" s="103"/>
@@ -42092,7 +42105,7 @@
       </c>
       <c r="AF43" s="78"/>
       <c r="AG43" s="79"/>
-      <c r="AI43" s="147"/>
+      <c r="AI43" s="148"/>
       <c r="AJ43" s="94"/>
       <c r="AK43" s="103"/>
       <c r="AL43" s="103"/>
@@ -42103,7 +42116,7 @@
       </c>
       <c r="AO43" s="103"/>
       <c r="AP43" s="112"/>
-      <c r="AR43" s="147"/>
+      <c r="AR43" s="148"/>
       <c r="AS43" s="127"/>
       <c r="AT43" s="128"/>
       <c r="AU43" s="128"/>
@@ -42116,7 +42129,7 @@
       <c r="AY43" s="129"/>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A44" s="145">
+      <c r="A44" s="146">
         <v>38</v>
       </c>
       <c r="B44" s="34"/>
@@ -42131,7 +42144,7 @@
       <c r="L44" s="82"/>
       <c r="M44" s="82"/>
       <c r="P44" s="76"/>
-      <c r="Q44" s="145">
+      <c r="Q44" s="146">
         <v>38</v>
       </c>
       <c r="R44" s="95"/>
@@ -42140,7 +42153,7 @@
       <c r="U44" s="104"/>
       <c r="V44" s="104"/>
       <c r="X44" s="76"/>
-      <c r="Z44" s="145">
+      <c r="Z44" s="146">
         <v>38</v>
       </c>
       <c r="AA44" s="95"/>
@@ -42149,7 +42162,7 @@
       <c r="AD44" s="104"/>
       <c r="AE44" s="104"/>
       <c r="AG44" s="76"/>
-      <c r="AI44" s="145">
+      <c r="AI44" s="146">
         <v>38</v>
       </c>
       <c r="AJ44" s="95"/>
@@ -42159,7 +42172,7 @@
       <c r="AN44" s="104"/>
       <c r="AO44" s="104"/>
       <c r="AP44" s="110"/>
-      <c r="AR44" s="145">
+      <c r="AR44" s="146">
         <v>38</v>
       </c>
       <c r="AS44" s="124"/>
@@ -42171,7 +42184,7 @@
       <c r="AY44" s="126"/>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A45" s="146"/>
+      <c r="A45" s="147"/>
       <c r="B45" s="12"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
@@ -42184,21 +42197,21 @@
       <c r="L45" s="82"/>
       <c r="M45" s="82"/>
       <c r="P45" s="76"/>
-      <c r="Q45" s="146"/>
+      <c r="Q45" s="147"/>
       <c r="R45" s="95"/>
       <c r="S45" s="104"/>
       <c r="T45" s="104"/>
       <c r="U45" s="104"/>
       <c r="V45" s="104"/>
       <c r="X45" s="76"/>
-      <c r="Z45" s="146"/>
+      <c r="Z45" s="147"/>
       <c r="AA45" s="95"/>
       <c r="AB45" s="104"/>
       <c r="AC45" s="104"/>
       <c r="AD45" s="104"/>
       <c r="AE45" s="104"/>
       <c r="AG45" s="76"/>
-      <c r="AI45" s="146"/>
+      <c r="AI45" s="147"/>
       <c r="AJ45" s="95"/>
       <c r="AK45" s="104"/>
       <c r="AL45" s="104"/>
@@ -42206,7 +42219,7 @@
       <c r="AN45" s="104"/>
       <c r="AO45" s="104"/>
       <c r="AP45" s="110"/>
-      <c r="AR45" s="146"/>
+      <c r="AR45" s="147"/>
       <c r="AS45" s="124"/>
       <c r="AT45" s="125"/>
       <c r="AU45" s="125"/>
@@ -42216,7 +42229,7 @@
       <c r="AY45" s="126"/>
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A46" s="146"/>
+      <c r="A46" s="147"/>
       <c r="B46" s="12"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
@@ -42229,21 +42242,21 @@
       <c r="L46" s="82"/>
       <c r="M46" s="82"/>
       <c r="P46" s="76"/>
-      <c r="Q46" s="146"/>
+      <c r="Q46" s="147"/>
       <c r="R46" s="95"/>
       <c r="S46" s="104"/>
       <c r="T46" s="104"/>
       <c r="U46" s="104"/>
       <c r="V46" s="104"/>
       <c r="X46" s="76"/>
-      <c r="Z46" s="146"/>
+      <c r="Z46" s="147"/>
       <c r="AA46" s="95"/>
       <c r="AB46" s="104"/>
       <c r="AC46" s="104"/>
       <c r="AD46" s="104"/>
       <c r="AE46" s="104"/>
       <c r="AG46" s="76"/>
-      <c r="AI46" s="146"/>
+      <c r="AI46" s="147"/>
       <c r="AJ46" s="95"/>
       <c r="AK46" s="104"/>
       <c r="AL46" s="104"/>
@@ -42251,7 +42264,7 @@
       <c r="AN46" s="104"/>
       <c r="AO46" s="104"/>
       <c r="AP46" s="110"/>
-      <c r="AR46" s="146"/>
+      <c r="AR46" s="147"/>
       <c r="AS46" s="124"/>
       <c r="AT46" s="125"/>
       <c r="AU46" s="125"/>
@@ -42261,7 +42274,7 @@
       <c r="AY46" s="126"/>
     </row>
     <row r="47" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="147"/>
+      <c r="A47" s="148"/>
       <c r="B47" s="36"/>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
@@ -42274,21 +42287,21 @@
       <c r="L47" s="82"/>
       <c r="M47" s="82"/>
       <c r="P47" s="76"/>
-      <c r="Q47" s="147"/>
+      <c r="Q47" s="148"/>
       <c r="R47" s="95"/>
       <c r="S47" s="104"/>
       <c r="T47" s="104"/>
       <c r="U47" s="104"/>
       <c r="V47" s="104"/>
       <c r="X47" s="76"/>
-      <c r="Z47" s="147"/>
+      <c r="Z47" s="148"/>
       <c r="AA47" s="95"/>
       <c r="AB47" s="104"/>
       <c r="AC47" s="104"/>
       <c r="AD47" s="104"/>
       <c r="AE47" s="104"/>
       <c r="AG47" s="76"/>
-      <c r="AI47" s="147"/>
+      <c r="AI47" s="148"/>
       <c r="AJ47" s="95"/>
       <c r="AK47" s="104"/>
       <c r="AL47" s="104"/>
@@ -42296,7 +42309,7 @@
       <c r="AN47" s="104"/>
       <c r="AO47" s="104"/>
       <c r="AP47" s="110"/>
-      <c r="AR47" s="147"/>
+      <c r="AR47" s="148"/>
       <c r="AS47" s="124"/>
       <c r="AT47" s="125"/>
       <c r="AU47" s="125"/>
@@ -42306,7 +42319,7 @@
       <c r="AY47" s="126"/>
     </row>
     <row r="48" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A48" s="145">
+      <c r="A48" s="146">
         <v>39</v>
       </c>
       <c r="B48" s="12"/>
@@ -42323,7 +42336,7 @@
       <c r="N48" s="73"/>
       <c r="O48" s="73"/>
       <c r="P48" s="74"/>
-      <c r="Q48" s="145">
+      <c r="Q48" s="146">
         <v>39</v>
       </c>
       <c r="R48" s="96"/>
@@ -42333,7 +42346,7 @@
       <c r="V48" s="105"/>
       <c r="W48" s="73"/>
       <c r="X48" s="74"/>
-      <c r="Z48" s="145">
+      <c r="Z48" s="146">
         <v>39</v>
       </c>
       <c r="AA48" s="96"/>
@@ -42343,7 +42356,7 @@
       <c r="AE48" s="105"/>
       <c r="AF48" s="73"/>
       <c r="AG48" s="74"/>
-      <c r="AI48" s="145">
+      <c r="AI48" s="146">
         <v>39</v>
       </c>
       <c r="AJ48" s="96"/>
@@ -42353,7 +42366,7 @@
       <c r="AN48" s="105"/>
       <c r="AO48" s="105"/>
       <c r="AP48" s="114"/>
-      <c r="AR48" s="145">
+      <c r="AR48" s="146">
         <v>39</v>
       </c>
       <c r="AS48" s="121"/>
@@ -42365,7 +42378,7 @@
       <c r="AY48" s="123"/>
     </row>
     <row r="49" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A49" s="146"/>
+      <c r="A49" s="147"/>
       <c r="B49" s="12"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -42378,21 +42391,21 @@
       <c r="L49" s="82"/>
       <c r="M49" s="82"/>
       <c r="P49" s="76"/>
-      <c r="Q49" s="146"/>
+      <c r="Q49" s="147"/>
       <c r="R49" s="95"/>
       <c r="S49" s="104"/>
       <c r="T49" s="104"/>
       <c r="U49" s="104"/>
       <c r="V49" s="104"/>
       <c r="X49" s="76"/>
-      <c r="Z49" s="146"/>
+      <c r="Z49" s="147"/>
       <c r="AA49" s="95"/>
       <c r="AB49" s="104"/>
       <c r="AC49" s="104"/>
       <c r="AD49" s="104"/>
       <c r="AE49" s="104"/>
       <c r="AG49" s="76"/>
-      <c r="AI49" s="146"/>
+      <c r="AI49" s="147"/>
       <c r="AJ49" s="95"/>
       <c r="AK49" s="104"/>
       <c r="AL49" s="104"/>
@@ -42400,7 +42413,7 @@
       <c r="AN49" s="104"/>
       <c r="AO49" s="104"/>
       <c r="AP49" s="110"/>
-      <c r="AR49" s="146"/>
+      <c r="AR49" s="147"/>
       <c r="AS49" s="124"/>
       <c r="AT49" s="125"/>
       <c r="AU49" s="125"/>
@@ -42410,7 +42423,7 @@
       <c r="AY49" s="126"/>
     </row>
     <row r="50" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A50" s="146"/>
+      <c r="A50" s="147"/>
       <c r="B50" s="12"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
@@ -42423,21 +42436,21 @@
       <c r="L50" s="82"/>
       <c r="M50" s="82"/>
       <c r="P50" s="76"/>
-      <c r="Q50" s="146"/>
+      <c r="Q50" s="147"/>
       <c r="R50" s="95"/>
       <c r="S50" s="104"/>
       <c r="T50" s="104"/>
       <c r="U50" s="104"/>
       <c r="V50" s="104"/>
       <c r="X50" s="76"/>
-      <c r="Z50" s="146"/>
+      <c r="Z50" s="147"/>
       <c r="AA50" s="95"/>
       <c r="AB50" s="104"/>
       <c r="AC50" s="104"/>
       <c r="AD50" s="104"/>
       <c r="AE50" s="104"/>
       <c r="AG50" s="76"/>
-      <c r="AI50" s="146"/>
+      <c r="AI50" s="147"/>
       <c r="AJ50" s="95"/>
       <c r="AK50" s="104"/>
       <c r="AL50" s="104"/>
@@ -42445,7 +42458,7 @@
       <c r="AN50" s="104"/>
       <c r="AO50" s="104"/>
       <c r="AP50" s="110"/>
-      <c r="AR50" s="146"/>
+      <c r="AR50" s="147"/>
       <c r="AS50" s="124"/>
       <c r="AT50" s="125"/>
       <c r="AU50" s="125"/>
@@ -42455,7 +42468,7 @@
       <c r="AY50" s="126"/>
     </row>
     <row r="51" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A51" s="146"/>
+      <c r="A51" s="147"/>
       <c r="B51" s="12"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
@@ -42468,21 +42481,21 @@
       <c r="L51" s="82"/>
       <c r="M51" s="82"/>
       <c r="P51" s="76"/>
-      <c r="Q51" s="146"/>
+      <c r="Q51" s="147"/>
       <c r="R51" s="95"/>
       <c r="S51" s="104"/>
       <c r="T51" s="104"/>
       <c r="U51" s="104"/>
       <c r="V51" s="104"/>
       <c r="X51" s="76"/>
-      <c r="Z51" s="146"/>
+      <c r="Z51" s="147"/>
       <c r="AA51" s="95"/>
       <c r="AB51" s="104"/>
       <c r="AC51" s="104"/>
       <c r="AD51" s="104"/>
       <c r="AE51" s="104"/>
       <c r="AG51" s="76"/>
-      <c r="AI51" s="146"/>
+      <c r="AI51" s="147"/>
       <c r="AJ51" s="95"/>
       <c r="AK51" s="104"/>
       <c r="AL51" s="104"/>
@@ -42490,7 +42503,7 @@
       <c r="AN51" s="104"/>
       <c r="AO51" s="104"/>
       <c r="AP51" s="110"/>
-      <c r="AR51" s="146"/>
+      <c r="AR51" s="147"/>
       <c r="AS51" s="124"/>
       <c r="AT51" s="125"/>
       <c r="AU51" s="125"/>
@@ -42500,7 +42513,7 @@
       <c r="AY51" s="126"/>
     </row>
     <row r="52" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A52" s="146">
+      <c r="A52" s="147">
         <v>40</v>
       </c>
       <c r="B52" s="12">
@@ -42517,7 +42530,7 @@
       <c r="L52" s="82"/>
       <c r="M52" s="82"/>
       <c r="P52" s="76"/>
-      <c r="Q52" s="146">
+      <c r="Q52" s="147">
         <v>40</v>
       </c>
       <c r="R52" s="95"/>
@@ -42526,7 +42539,7 @@
       <c r="U52" s="104"/>
       <c r="V52" s="104"/>
       <c r="X52" s="76"/>
-      <c r="Z52" s="146">
+      <c r="Z52" s="147">
         <v>40</v>
       </c>
       <c r="AA52" s="95"/>
@@ -42535,7 +42548,7 @@
       <c r="AD52" s="104"/>
       <c r="AE52" s="104"/>
       <c r="AG52" s="76"/>
-      <c r="AI52" s="146">
+      <c r="AI52" s="147">
         <v>40</v>
       </c>
       <c r="AJ52" s="95"/>
@@ -42545,7 +42558,7 @@
       <c r="AN52" s="104"/>
       <c r="AO52" s="104"/>
       <c r="AP52" s="110"/>
-      <c r="AR52" s="146">
+      <c r="AR52" s="147">
         <v>40</v>
       </c>
       <c r="AS52" s="124"/>
@@ -42557,7 +42570,7 @@
       <c r="AY52" s="126"/>
     </row>
     <row r="53" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A53" s="146"/>
+      <c r="A53" s="147"/>
       <c r="B53" s="12">
         <v>54.804878048780488</v>
       </c>
@@ -42572,21 +42585,21 @@
       <c r="L53" s="82"/>
       <c r="M53" s="82"/>
       <c r="P53" s="76"/>
-      <c r="Q53" s="146"/>
+      <c r="Q53" s="147"/>
       <c r="R53" s="95"/>
       <c r="S53" s="104"/>
       <c r="T53" s="104"/>
       <c r="U53" s="104"/>
       <c r="V53" s="104"/>
       <c r="X53" s="76"/>
-      <c r="Z53" s="146"/>
+      <c r="Z53" s="147"/>
       <c r="AA53" s="95"/>
       <c r="AB53" s="104"/>
       <c r="AC53" s="104"/>
       <c r="AD53" s="104"/>
       <c r="AE53" s="104"/>
       <c r="AG53" s="76"/>
-      <c r="AI53" s="146"/>
+      <c r="AI53" s="147"/>
       <c r="AJ53" s="95"/>
       <c r="AK53" s="104"/>
       <c r="AL53" s="104"/>
@@ -42594,7 +42607,7 @@
       <c r="AN53" s="104"/>
       <c r="AO53" s="104"/>
       <c r="AP53" s="110"/>
-      <c r="AR53" s="146"/>
+      <c r="AR53" s="147"/>
       <c r="AS53" s="124"/>
       <c r="AT53" s="125"/>
       <c r="AU53" s="125"/>
@@ -42604,7 +42617,7 @@
       <c r="AY53" s="126"/>
     </row>
     <row r="54" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A54" s="146"/>
+      <c r="A54" s="147"/>
       <c r="B54" s="12"/>
       <c r="C54" s="17"/>
       <c r="D54" s="21"/>
@@ -42617,21 +42630,21 @@
       <c r="L54" s="82"/>
       <c r="M54" s="82"/>
       <c r="P54" s="76"/>
-      <c r="Q54" s="146"/>
+      <c r="Q54" s="147"/>
       <c r="R54" s="95"/>
       <c r="S54" s="104"/>
       <c r="T54" s="104"/>
       <c r="U54" s="104"/>
       <c r="V54" s="104"/>
       <c r="X54" s="76"/>
-      <c r="Z54" s="146"/>
+      <c r="Z54" s="147"/>
       <c r="AA54" s="95"/>
       <c r="AB54" s="104"/>
       <c r="AC54" s="104"/>
       <c r="AD54" s="104"/>
       <c r="AE54" s="104"/>
       <c r="AG54" s="76"/>
-      <c r="AI54" s="146"/>
+      <c r="AI54" s="147"/>
       <c r="AJ54" s="95"/>
       <c r="AK54" s="104"/>
       <c r="AL54" s="104"/>
@@ -42639,7 +42652,7 @@
       <c r="AN54" s="104"/>
       <c r="AO54" s="104"/>
       <c r="AP54" s="110"/>
-      <c r="AR54" s="146"/>
+      <c r="AR54" s="147"/>
       <c r="AS54" s="124"/>
       <c r="AT54" s="125"/>
       <c r="AU54" s="125"/>
@@ -42649,7 +42662,7 @@
       <c r="AY54" s="126"/>
     </row>
     <row r="55" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="147"/>
+      <c r="A55" s="148"/>
       <c r="B55" s="36"/>
       <c r="C55" s="29"/>
       <c r="D55" s="26"/>
@@ -42662,7 +42675,7 @@
       <c r="L55" s="82"/>
       <c r="M55" s="82"/>
       <c r="P55" s="76"/>
-      <c r="Q55" s="147"/>
+      <c r="Q55" s="148"/>
       <c r="R55" s="95">
         <f>SUM(B52:B55)*J59</f>
         <v>38.509309253397873</v>
@@ -42672,7 +42685,7 @@
       <c r="U55" s="104"/>
       <c r="V55" s="104"/>
       <c r="X55" s="76"/>
-      <c r="Z55" s="147"/>
+      <c r="Z55" s="148"/>
       <c r="AA55" s="92">
         <f>R55/R$81</f>
         <v>2.9668855383638761E-2</v>
@@ -42682,7 +42695,7 @@
       <c r="AD55" s="104"/>
       <c r="AE55" s="104"/>
       <c r="AG55" s="76"/>
-      <c r="AI55" s="147"/>
+      <c r="AI55" s="148"/>
       <c r="AJ55" s="95">
         <f>SUM(B52:B55)-R55</f>
         <v>38.509309253397873</v>
@@ -42711,7 +42724,7 @@
         <f t="shared" ref="AP55" si="27">SUM(H52:H55)-X55</f>
         <v>0</v>
       </c>
-      <c r="AR55" s="147"/>
+      <c r="AR55" s="148"/>
       <c r="AS55" s="124">
         <f>AJ55/AJ$81</f>
         <v>6.5561225757474556E-2</v>
@@ -42742,7 +42755,7 @@
       </c>
     </row>
     <row r="56" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A56" s="145">
+      <c r="A56" s="146">
         <v>41</v>
       </c>
       <c r="B56" s="34">
@@ -42771,7 +42784,7 @@
       <c r="N56" s="73"/>
       <c r="O56" s="73"/>
       <c r="P56" s="74"/>
-      <c r="Q56" s="145">
+      <c r="Q56" s="146">
         <v>41</v>
       </c>
       <c r="R56" s="96"/>
@@ -42781,7 +42794,7 @@
       <c r="V56" s="105"/>
       <c r="W56" s="73"/>
       <c r="X56" s="74"/>
-      <c r="Z56" s="145">
+      <c r="Z56" s="146">
         <v>41</v>
       </c>
       <c r="AA56" s="120"/>
@@ -42791,7 +42804,7 @@
       <c r="AE56" s="105"/>
       <c r="AF56" s="73"/>
       <c r="AG56" s="74"/>
-      <c r="AI56" s="145">
+      <c r="AI56" s="146">
         <v>41</v>
       </c>
       <c r="AJ56" s="96"/>
@@ -42801,7 +42814,7 @@
       <c r="AN56" s="105"/>
       <c r="AO56" s="105"/>
       <c r="AP56" s="114"/>
-      <c r="AR56" s="145">
+      <c r="AR56" s="146">
         <v>41</v>
       </c>
       <c r="AS56" s="121"/>
@@ -42813,7 +42826,7 @@
       <c r="AY56" s="123"/>
     </row>
     <row r="57" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A57" s="146"/>
+      <c r="A57" s="147"/>
       <c r="B57" s="12">
         <v>5</v>
       </c>
@@ -42836,21 +42849,21 @@
       <c r="L57" s="82"/>
       <c r="M57" s="82"/>
       <c r="P57" s="76"/>
-      <c r="Q57" s="146"/>
+      <c r="Q57" s="147"/>
       <c r="R57" s="95"/>
       <c r="S57" s="104"/>
       <c r="T57" s="104"/>
       <c r="U57" s="104"/>
       <c r="V57" s="104"/>
       <c r="X57" s="76"/>
-      <c r="Z57" s="146"/>
+      <c r="Z57" s="147"/>
       <c r="AA57" s="119"/>
       <c r="AB57" s="104"/>
       <c r="AC57" s="104"/>
       <c r="AD57" s="104"/>
       <c r="AE57" s="104"/>
       <c r="AG57" s="76"/>
-      <c r="AI57" s="146"/>
+      <c r="AI57" s="147"/>
       <c r="AJ57" s="95"/>
       <c r="AK57" s="104"/>
       <c r="AL57" s="104"/>
@@ -42858,7 +42871,7 @@
       <c r="AN57" s="104"/>
       <c r="AO57" s="104"/>
       <c r="AP57" s="110"/>
-      <c r="AR57" s="146"/>
+      <c r="AR57" s="147"/>
       <c r="AS57" s="124"/>
       <c r="AT57" s="125"/>
       <c r="AU57" s="125"/>
@@ -42868,7 +42881,7 @@
       <c r="AY57" s="126"/>
     </row>
     <row r="58" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A58" s="146"/>
+      <c r="A58" s="147"/>
       <c r="B58" s="12">
         <v>8</v>
       </c>
@@ -42889,21 +42902,21 @@
       <c r="L58" s="82"/>
       <c r="M58" s="82"/>
       <c r="P58" s="76"/>
-      <c r="Q58" s="146"/>
+      <c r="Q58" s="147"/>
       <c r="R58" s="95"/>
       <c r="S58" s="104"/>
       <c r="T58" s="104"/>
       <c r="U58" s="104"/>
       <c r="V58" s="104"/>
       <c r="X58" s="76"/>
-      <c r="Z58" s="146"/>
+      <c r="Z58" s="147"/>
       <c r="AA58" s="119"/>
       <c r="AB58" s="104"/>
       <c r="AC58" s="104"/>
       <c r="AD58" s="104"/>
       <c r="AE58" s="104"/>
       <c r="AG58" s="76"/>
-      <c r="AI58" s="146"/>
+      <c r="AI58" s="147"/>
       <c r="AJ58" s="95"/>
       <c r="AK58" s="104"/>
       <c r="AL58" s="104"/>
@@ -42911,7 +42924,7 @@
       <c r="AN58" s="104"/>
       <c r="AO58" s="104"/>
       <c r="AP58" s="110"/>
-      <c r="AR58" s="146"/>
+      <c r="AR58" s="147"/>
       <c r="AS58" s="124"/>
       <c r="AT58" s="125"/>
       <c r="AU58" s="125"/>
@@ -42921,7 +42934,7 @@
       <c r="AY58" s="126"/>
     </row>
     <row r="59" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="147"/>
+      <c r="A59" s="148"/>
       <c r="B59" s="12">
         <v>8</v>
       </c>
@@ -42952,7 +42965,7 @@
       <c r="P59" s="79">
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q59" s="147"/>
+      <c r="Q59" s="148"/>
       <c r="R59" s="94">
         <f t="shared" ref="R59:X59" si="29">SUM(B56:B59)*J59</f>
         <v>12.5</v>
@@ -42981,7 +42994,7 @@
         <f t="shared" si="29"/>
         <v>19.438775510204081</v>
       </c>
-      <c r="Z59" s="147"/>
+      <c r="Z59" s="148"/>
       <c r="AA59" s="91">
         <f>R59/R$81</f>
         <v>9.6304166313437977E-3</v>
@@ -43010,7 +43023,7 @@
         <f t="shared" si="30"/>
         <v>2.0008909341657832E-2</v>
       </c>
-      <c r="AI59" s="147"/>
+      <c r="AI59" s="148"/>
       <c r="AJ59" s="94">
         <f>SUM(B56:B59)-R59</f>
         <v>12.5</v>
@@ -43039,7 +43052,7 @@
         <f t="shared" ref="AP59" si="36">SUM(H56:H59)-X59</f>
         <v>3.887755102040817</v>
       </c>
-      <c r="AR59" s="147"/>
+      <c r="AR59" s="148"/>
       <c r="AS59" s="127">
         <f>AJ59/AJ$81</f>
         <v>2.1280966546968691E-2</v>
@@ -43070,7 +43083,7 @@
       </c>
     </row>
     <row r="60" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A60" s="145">
+      <c r="A60" s="146">
         <v>42</v>
       </c>
       <c r="B60" s="34">
@@ -43097,7 +43110,7 @@
       <c r="L60" s="82"/>
       <c r="M60" s="82"/>
       <c r="P60" s="76"/>
-      <c r="Q60" s="145">
+      <c r="Q60" s="146">
         <v>42</v>
       </c>
       <c r="R60" s="95"/>
@@ -43107,7 +43120,7 @@
       <c r="V60" s="104"/>
       <c r="W60" s="104"/>
       <c r="X60" s="76"/>
-      <c r="Z60" s="145">
+      <c r="Z60" s="146">
         <v>42</v>
       </c>
       <c r="AA60" s="92"/>
@@ -43117,7 +43130,7 @@
       <c r="AE60" s="101"/>
       <c r="AF60" s="101"/>
       <c r="AG60" s="109"/>
-      <c r="AI60" s="145">
+      <c r="AI60" s="146">
         <v>42</v>
       </c>
       <c r="AJ60" s="95"/>
@@ -43127,7 +43140,7 @@
       <c r="AN60" s="104"/>
       <c r="AO60" s="104"/>
       <c r="AP60" s="110"/>
-      <c r="AR60" s="145">
+      <c r="AR60" s="146">
         <v>42</v>
       </c>
       <c r="AS60" s="124"/>
@@ -43139,7 +43152,7 @@
       <c r="AY60" s="126"/>
     </row>
     <row r="61" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A61" s="146"/>
+      <c r="A61" s="147"/>
       <c r="B61" s="12">
         <v>6</v>
       </c>
@@ -43164,7 +43177,7 @@
       <c r="L61" s="82"/>
       <c r="M61" s="82"/>
       <c r="P61" s="76"/>
-      <c r="Q61" s="146"/>
+      <c r="Q61" s="147"/>
       <c r="R61" s="95"/>
       <c r="S61" s="104"/>
       <c r="T61" s="104"/>
@@ -43172,7 +43185,7 @@
       <c r="V61" s="104"/>
       <c r="W61" s="104"/>
       <c r="X61" s="76"/>
-      <c r="Z61" s="146"/>
+      <c r="Z61" s="147"/>
       <c r="AA61" s="92"/>
       <c r="AB61" s="101"/>
       <c r="AC61" s="101"/>
@@ -43180,7 +43193,7 @@
       <c r="AE61" s="101"/>
       <c r="AF61" s="101"/>
       <c r="AG61" s="109"/>
-      <c r="AI61" s="146"/>
+      <c r="AI61" s="147"/>
       <c r="AJ61" s="95"/>
       <c r="AK61" s="104"/>
       <c r="AL61" s="104"/>
@@ -43188,7 +43201,7 @@
       <c r="AN61" s="104"/>
       <c r="AO61" s="104"/>
       <c r="AP61" s="110"/>
-      <c r="AR61" s="146"/>
+      <c r="AR61" s="147"/>
       <c r="AS61" s="124"/>
       <c r="AT61" s="125"/>
       <c r="AU61" s="125"/>
@@ -43198,7 +43211,7 @@
       <c r="AY61" s="126"/>
     </row>
     <row r="62" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A62" s="146"/>
+      <c r="A62" s="147"/>
       <c r="B62" s="23">
         <v>0</v>
       </c>
@@ -43223,7 +43236,7 @@
       <c r="L62" s="82"/>
       <c r="M62" s="82"/>
       <c r="P62" s="76"/>
-      <c r="Q62" s="146"/>
+      <c r="Q62" s="147"/>
       <c r="R62" s="95"/>
       <c r="S62" s="104"/>
       <c r="T62" s="104"/>
@@ -43231,7 +43244,7 @@
       <c r="V62" s="104"/>
       <c r="W62" s="104"/>
       <c r="X62" s="76"/>
-      <c r="Z62" s="146"/>
+      <c r="Z62" s="147"/>
       <c r="AA62" s="92"/>
       <c r="AB62" s="101"/>
       <c r="AC62" s="101"/>
@@ -43239,7 +43252,7 @@
       <c r="AE62" s="101"/>
       <c r="AF62" s="101"/>
       <c r="AG62" s="109"/>
-      <c r="AI62" s="146"/>
+      <c r="AI62" s="147"/>
       <c r="AJ62" s="95"/>
       <c r="AK62" s="104"/>
       <c r="AL62" s="104"/>
@@ -43247,7 +43260,7 @@
       <c r="AN62" s="104"/>
       <c r="AO62" s="104"/>
       <c r="AP62" s="110"/>
-      <c r="AR62" s="146"/>
+      <c r="AR62" s="147"/>
       <c r="AS62" s="124"/>
       <c r="AT62" s="125"/>
       <c r="AU62" s="125"/>
@@ -43257,7 +43270,7 @@
       <c r="AY62" s="126"/>
     </row>
     <row r="63" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="147"/>
+      <c r="A63" s="148"/>
       <c r="B63" s="28">
         <v>0</v>
       </c>
@@ -43293,7 +43306,7 @@
       <c r="P63" s="76">
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q63" s="147"/>
+      <c r="Q63" s="148"/>
       <c r="R63" s="95">
         <f t="shared" ref="R63:X63" si="38">SUM(B60:B63)*J63</f>
         <v>4</v>
@@ -43322,7 +43335,7 @@
         <f t="shared" si="38"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="Z63" s="147"/>
+      <c r="Z63" s="148"/>
       <c r="AA63" s="92">
         <f>R63/R$81</f>
         <v>3.0817333220300156E-3</v>
@@ -43351,7 +43364,7 @@
         <f t="shared" si="39"/>
         <v>2.7448792517689832E-3</v>
       </c>
-      <c r="AI63" s="147"/>
+      <c r="AI63" s="148"/>
       <c r="AJ63" s="95">
         <f>SUM(B60:B63)-R63</f>
         <v>2</v>
@@ -43380,7 +43393,7 @@
         <f t="shared" ref="AP63" si="45">SUM(H60:H63)-X63</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="AR63" s="147"/>
+      <c r="AR63" s="148"/>
       <c r="AS63" s="124">
         <f>AJ63/AJ$81</f>
         <v>3.4049546475149904E-3</v>
@@ -43411,7 +43424,7 @@
       </c>
     </row>
     <row r="64" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A64" s="146">
+      <c r="A64" s="147">
         <v>43</v>
       </c>
       <c r="B64" s="9">
@@ -43440,7 +43453,7 @@
       <c r="N64" s="73"/>
       <c r="O64" s="73"/>
       <c r="P64" s="74"/>
-      <c r="Q64" s="146">
+      <c r="Q64" s="147">
         <v>43</v>
       </c>
       <c r="R64" s="96"/>
@@ -43450,7 +43463,7 @@
       <c r="V64" s="105"/>
       <c r="W64" s="105"/>
       <c r="X64" s="74"/>
-      <c r="Z64" s="146">
+      <c r="Z64" s="147">
         <v>43</v>
       </c>
       <c r="AA64" s="93"/>
@@ -43460,7 +43473,7 @@
       <c r="AE64" s="102"/>
       <c r="AF64" s="102"/>
       <c r="AG64" s="113"/>
-      <c r="AI64" s="146">
+      <c r="AI64" s="147">
         <v>43</v>
       </c>
       <c r="AJ64" s="96"/>
@@ -43470,7 +43483,7 @@
       <c r="AN64" s="105"/>
       <c r="AO64" s="105"/>
       <c r="AP64" s="114"/>
-      <c r="AR64" s="146">
+      <c r="AR64" s="147">
         <v>43</v>
       </c>
       <c r="AS64" s="121"/>
@@ -43482,7 +43495,7 @@
       <c r="AY64" s="123"/>
     </row>
     <row r="65" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A65" s="146"/>
+      <c r="A65" s="147"/>
       <c r="B65" s="23">
         <v>0</v>
       </c>
@@ -43504,7 +43517,7 @@
       </c>
       <c r="J65" s="75"/>
       <c r="P65" s="76"/>
-      <c r="Q65" s="146"/>
+      <c r="Q65" s="147"/>
       <c r="R65" s="95"/>
       <c r="S65" s="104"/>
       <c r="T65" s="104"/>
@@ -43512,7 +43525,7 @@
       <c r="V65" s="104"/>
       <c r="W65" s="104"/>
       <c r="X65" s="76"/>
-      <c r="Z65" s="146"/>
+      <c r="Z65" s="147"/>
       <c r="AA65" s="92"/>
       <c r="AB65" s="101"/>
       <c r="AC65" s="101"/>
@@ -43520,7 +43533,7 @@
       <c r="AE65" s="101"/>
       <c r="AF65" s="101"/>
       <c r="AG65" s="109"/>
-      <c r="AI65" s="146"/>
+      <c r="AI65" s="147"/>
       <c r="AJ65" s="95"/>
       <c r="AK65" s="104"/>
       <c r="AL65" s="104"/>
@@ -43528,7 +43541,7 @@
       <c r="AN65" s="104"/>
       <c r="AO65" s="104"/>
       <c r="AP65" s="110"/>
-      <c r="AR65" s="146"/>
+      <c r="AR65" s="147"/>
       <c r="AS65" s="124"/>
       <c r="AT65" s="125"/>
       <c r="AU65" s="125"/>
@@ -43538,7 +43551,7 @@
       <c r="AY65" s="126"/>
     </row>
     <row r="66" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A66" s="146"/>
+      <c r="A66" s="147"/>
       <c r="B66" s="23">
         <v>0</v>
       </c>
@@ -43560,7 +43573,7 @@
       </c>
       <c r="J66" s="75"/>
       <c r="P66" s="76"/>
-      <c r="Q66" s="146"/>
+      <c r="Q66" s="147"/>
       <c r="R66" s="95"/>
       <c r="S66" s="104"/>
       <c r="T66" s="104"/>
@@ -43568,7 +43581,7 @@
       <c r="V66" s="104"/>
       <c r="W66" s="104"/>
       <c r="X66" s="76"/>
-      <c r="Z66" s="146"/>
+      <c r="Z66" s="147"/>
       <c r="AA66" s="92"/>
       <c r="AB66" s="101"/>
       <c r="AC66" s="101"/>
@@ -43576,7 +43589,7 @@
       <c r="AE66" s="101"/>
       <c r="AF66" s="101"/>
       <c r="AG66" s="109"/>
-      <c r="AI66" s="146"/>
+      <c r="AI66" s="147"/>
       <c r="AJ66" s="95"/>
       <c r="AK66" s="104"/>
       <c r="AL66" s="104"/>
@@ -43584,7 +43597,7 @@
       <c r="AN66" s="104"/>
       <c r="AO66" s="104"/>
       <c r="AP66" s="110"/>
-      <c r="AR66" s="146"/>
+      <c r="AR66" s="147"/>
       <c r="AS66" s="124"/>
       <c r="AT66" s="125"/>
       <c r="AU66" s="125"/>
@@ -43594,7 +43607,7 @@
       <c r="AY66" s="126"/>
     </row>
     <row r="67" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="147"/>
+      <c r="A67" s="148"/>
       <c r="B67" s="28">
         <v>0</v>
       </c>
@@ -43619,7 +43632,7 @@
       <c r="N67" s="78"/>
       <c r="O67" s="78"/>
       <c r="P67" s="79"/>
-      <c r="Q67" s="147"/>
+      <c r="Q67" s="148"/>
       <c r="R67" s="97">
         <f>SUM(B64:B67)*J$63</f>
         <v>2.6666666666666665</v>
@@ -43642,7 +43655,7 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="X67" s="79"/>
-      <c r="Z67" s="147"/>
+      <c r="Z67" s="148"/>
       <c r="AA67" s="91">
         <f>R67/R$81</f>
         <v>2.0544888813533433E-3</v>
@@ -43671,7 +43684,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AI67" s="147"/>
+      <c r="AI67" s="148"/>
       <c r="AJ67" s="94">
         <f>SUM(B64:B67)-R67</f>
         <v>1.3333333333333335</v>
@@ -43700,7 +43713,7 @@
         <f t="shared" ref="AP67" si="53">SUM(H64:H67)-X67</f>
         <v>0</v>
       </c>
-      <c r="AR67" s="147"/>
+      <c r="AR67" s="148"/>
       <c r="AS67" s="127">
         <f>AJ67/AJ$81</f>
         <v>2.2699697650099939E-3</v>
@@ -43731,7 +43744,7 @@
       </c>
     </row>
     <row r="68" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A68" s="145">
+      <c r="A68" s="146">
         <v>44</v>
       </c>
       <c r="B68" s="9">
@@ -43757,7 +43770,7 @@
       </c>
       <c r="J68" s="75"/>
       <c r="P68" s="76"/>
-      <c r="Q68" s="145">
+      <c r="Q68" s="146">
         <v>44</v>
       </c>
       <c r="R68" s="98"/>
@@ -43767,7 +43780,7 @@
       <c r="V68" s="107"/>
       <c r="W68" s="104"/>
       <c r="X68" s="76"/>
-      <c r="Z68" s="145">
+      <c r="Z68" s="146">
         <v>44</v>
       </c>
       <c r="AA68" s="92"/>
@@ -43777,7 +43790,7 @@
       <c r="AE68" s="101"/>
       <c r="AF68" s="101"/>
       <c r="AG68" s="109"/>
-      <c r="AI68" s="145">
+      <c r="AI68" s="146">
         <v>44</v>
       </c>
       <c r="AJ68" s="95"/>
@@ -43787,7 +43800,7 @@
       <c r="AN68" s="104"/>
       <c r="AO68" s="104"/>
       <c r="AP68" s="110"/>
-      <c r="AR68" s="145">
+      <c r="AR68" s="146">
         <v>44</v>
       </c>
       <c r="AS68" s="124"/>
@@ -43799,7 +43812,7 @@
       <c r="AY68" s="126"/>
     </row>
     <row r="69" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A69" s="146"/>
+      <c r="A69" s="147"/>
       <c r="B69" s="23">
         <v>0</v>
       </c>
@@ -43823,7 +43836,7 @@
       </c>
       <c r="J69" s="75"/>
       <c r="P69" s="76"/>
-      <c r="Q69" s="146"/>
+      <c r="Q69" s="147"/>
       <c r="R69" s="98"/>
       <c r="S69" s="107"/>
       <c r="T69" s="107"/>
@@ -43831,7 +43844,7 @@
       <c r="V69" s="107"/>
       <c r="W69" s="104"/>
       <c r="X69" s="76"/>
-      <c r="Z69" s="146"/>
+      <c r="Z69" s="147"/>
       <c r="AA69" s="92"/>
       <c r="AB69" s="101"/>
       <c r="AC69" s="101"/>
@@ -43839,7 +43852,7 @@
       <c r="AE69" s="101"/>
       <c r="AF69" s="101"/>
       <c r="AG69" s="109"/>
-      <c r="AI69" s="146"/>
+      <c r="AI69" s="147"/>
       <c r="AJ69" s="95"/>
       <c r="AK69" s="104"/>
       <c r="AL69" s="104"/>
@@ -43847,7 +43860,7 @@
       <c r="AN69" s="104"/>
       <c r="AO69" s="104"/>
       <c r="AP69" s="110"/>
-      <c r="AR69" s="146"/>
+      <c r="AR69" s="147"/>
       <c r="AS69" s="124"/>
       <c r="AT69" s="125"/>
       <c r="AU69" s="125"/>
@@ -43857,7 +43870,7 @@
       <c r="AY69" s="126"/>
     </row>
     <row r="70" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A70" s="146"/>
+      <c r="A70" s="147"/>
       <c r="B70" s="23">
         <v>0</v>
       </c>
@@ -43881,14 +43894,14 @@
       </c>
       <c r="J70" s="75"/>
       <c r="P70" s="76"/>
-      <c r="Q70" s="146"/>
+      <c r="Q70" s="147"/>
       <c r="R70" s="98"/>
       <c r="S70" s="107"/>
       <c r="T70" s="107"/>
       <c r="U70" s="107"/>
       <c r="V70" s="107"/>
       <c r="X70" s="76"/>
-      <c r="Z70" s="146"/>
+      <c r="Z70" s="147"/>
       <c r="AA70" s="92"/>
       <c r="AB70" s="101"/>
       <c r="AC70" s="101"/>
@@ -43896,7 +43909,7 @@
       <c r="AE70" s="101"/>
       <c r="AF70" s="101"/>
       <c r="AG70" s="109"/>
-      <c r="AI70" s="146"/>
+      <c r="AI70" s="147"/>
       <c r="AJ70" s="95"/>
       <c r="AK70" s="104"/>
       <c r="AL70" s="104"/>
@@ -43904,7 +43917,7 @@
       <c r="AN70" s="104"/>
       <c r="AO70" s="104"/>
       <c r="AP70" s="110"/>
-      <c r="AR70" s="146"/>
+      <c r="AR70" s="147"/>
       <c r="AS70" s="124"/>
       <c r="AT70" s="125"/>
       <c r="AU70" s="125"/>
@@ -43914,7 +43927,7 @@
       <c r="AY70" s="126"/>
     </row>
     <row r="71" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="147"/>
+      <c r="A71" s="148"/>
       <c r="B71" s="25">
         <v>1</v>
       </c>
@@ -43936,7 +43949,7 @@
       </c>
       <c r="J71" s="75"/>
       <c r="P71" s="76"/>
-      <c r="Q71" s="147"/>
+      <c r="Q71" s="148"/>
       <c r="R71" s="98">
         <f>SUM(B68:B71)*J$63</f>
         <v>8</v>
@@ -43955,7 +43968,7 @@
         <v>0</v>
       </c>
       <c r="X71" s="76"/>
-      <c r="Z71" s="147"/>
+      <c r="Z71" s="148"/>
       <c r="AA71" s="92">
         <f>R71/R$81</f>
         <v>6.1634666440600313E-3</v>
@@ -43984,7 +43997,7 @@
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="AI71" s="147"/>
+      <c r="AI71" s="148"/>
       <c r="AJ71" s="95">
         <f>SUM(B68:B71)-R71</f>
         <v>4</v>
@@ -44013,7 +44026,7 @@
         <f t="shared" ref="AP71" si="61">SUM(H68:H71)-X71</f>
         <v>0</v>
       </c>
-      <c r="AR71" s="147"/>
+      <c r="AR71" s="148"/>
       <c r="AS71" s="124">
         <f>AJ71/AJ$81</f>
         <v>6.8099092950299808E-3</v>
@@ -44044,7 +44057,7 @@
       </c>
     </row>
     <row r="72" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A72" s="145">
+      <c r="A72" s="146">
         <v>45</v>
       </c>
       <c r="B72" s="15">
@@ -44075,7 +44088,7 @@
       <c r="N72" s="73"/>
       <c r="O72" s="73"/>
       <c r="P72" s="74"/>
-      <c r="Q72" s="145">
+      <c r="Q72" s="146">
         <v>45</v>
       </c>
       <c r="R72" s="99"/>
@@ -44085,7 +44098,7 @@
       <c r="V72" s="108"/>
       <c r="W72" s="73"/>
       <c r="X72" s="74"/>
-      <c r="Z72" s="145">
+      <c r="Z72" s="146">
         <v>45</v>
       </c>
       <c r="AA72" s="93"/>
@@ -44095,7 +44108,7 @@
       <c r="AE72" s="102"/>
       <c r="AF72" s="102"/>
       <c r="AG72" s="113"/>
-      <c r="AI72" s="145">
+      <c r="AI72" s="146">
         <v>45</v>
       </c>
       <c r="AJ72" s="96"/>
@@ -44105,7 +44118,7 @@
       <c r="AN72" s="105"/>
       <c r="AO72" s="105"/>
       <c r="AP72" s="114"/>
-      <c r="AR72" s="145">
+      <c r="AR72" s="146">
         <v>45</v>
       </c>
       <c r="AS72" s="121"/>
@@ -44117,7 +44130,7 @@
       <c r="AY72" s="123"/>
     </row>
     <row r="73" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A73" s="146"/>
+      <c r="A73" s="147"/>
       <c r="B73" s="20">
         <v>4</v>
       </c>
@@ -44141,14 +44154,14 @@
       </c>
       <c r="J73" s="75"/>
       <c r="P73" s="76"/>
-      <c r="Q73" s="146"/>
+      <c r="Q73" s="147"/>
       <c r="R73" s="98"/>
       <c r="S73" s="107"/>
       <c r="T73" s="107"/>
       <c r="U73" s="107"/>
       <c r="V73" s="107"/>
       <c r="X73" s="76"/>
-      <c r="Z73" s="146"/>
+      <c r="Z73" s="147"/>
       <c r="AA73" s="92"/>
       <c r="AB73" s="101"/>
       <c r="AC73" s="101"/>
@@ -44156,7 +44169,7 @@
       <c r="AE73" s="101"/>
       <c r="AF73" s="101"/>
       <c r="AG73" s="109"/>
-      <c r="AI73" s="146"/>
+      <c r="AI73" s="147"/>
       <c r="AJ73" s="95"/>
       <c r="AK73" s="104"/>
       <c r="AL73" s="104"/>
@@ -44164,7 +44177,7 @@
       <c r="AN73" s="104"/>
       <c r="AO73" s="104"/>
       <c r="AP73" s="110"/>
-      <c r="AR73" s="146"/>
+      <c r="AR73" s="147"/>
       <c r="AS73" s="124"/>
       <c r="AT73" s="125"/>
       <c r="AU73" s="125"/>
@@ -44174,7 +44187,7 @@
       <c r="AY73" s="126"/>
     </row>
     <row r="74" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A74" s="146"/>
+      <c r="A74" s="147"/>
       <c r="B74" s="23">
         <v>0</v>
       </c>
@@ -44198,14 +44211,14 @@
       </c>
       <c r="J74" s="75"/>
       <c r="P74" s="76"/>
-      <c r="Q74" s="146"/>
+      <c r="Q74" s="147"/>
       <c r="R74" s="98"/>
       <c r="S74" s="107"/>
       <c r="T74" s="107"/>
       <c r="U74" s="107"/>
       <c r="V74" s="107"/>
       <c r="X74" s="76"/>
-      <c r="Z74" s="146"/>
+      <c r="Z74" s="147"/>
       <c r="AA74" s="92"/>
       <c r="AB74" s="101"/>
       <c r="AC74" s="101"/>
@@ -44213,7 +44226,7 @@
       <c r="AE74" s="101"/>
       <c r="AF74" s="101"/>
       <c r="AG74" s="109"/>
-      <c r="AI74" s="146"/>
+      <c r="AI74" s="147"/>
       <c r="AJ74" s="95"/>
       <c r="AK74" s="104"/>
       <c r="AL74" s="104"/>
@@ -44221,7 +44234,7 @@
       <c r="AN74" s="104"/>
       <c r="AO74" s="104"/>
       <c r="AP74" s="110"/>
-      <c r="AR74" s="146"/>
+      <c r="AR74" s="147"/>
       <c r="AS74" s="124"/>
       <c r="AT74" s="125"/>
       <c r="AU74" s="125"/>
@@ -44231,7 +44244,7 @@
       <c r="AY74" s="126"/>
     </row>
     <row r="75" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="147"/>
+      <c r="A75" s="148"/>
       <c r="B75" s="25">
         <v>1</v>
       </c>
@@ -44258,7 +44271,7 @@
       <c r="N75" s="78"/>
       <c r="O75" s="78"/>
       <c r="P75" s="79"/>
-      <c r="Q75" s="147"/>
+      <c r="Q75" s="148"/>
       <c r="R75" s="97">
         <f>SUM(B72:B75)*J$63</f>
         <v>3.333333333333333</v>
@@ -44281,7 +44294,7 @@
         <f>SUM(H72:H75)*P63</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Z75" s="147"/>
+      <c r="Z75" s="148"/>
       <c r="AA75" s="91">
         <f>R75/R$81</f>
         <v>2.5681111016916795E-3</v>
@@ -44310,7 +44323,7 @@
         <f t="shared" si="63"/>
         <v>6.8621981294224581E-4</v>
       </c>
-      <c r="AI75" s="147"/>
+      <c r="AI75" s="148"/>
       <c r="AJ75" s="94">
         <f>SUM(B72:B75)-R75</f>
         <v>1.666666666666667</v>
@@ -44339,7 +44352,7 @@
         <f t="shared" ref="AP75" si="69">SUM(H72:H75)-X75</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="AR75" s="147"/>
+      <c r="AR75" s="148"/>
       <c r="AS75" s="127">
         <f>AJ75/AJ$81</f>
         <v>2.8374622062624926E-3</v>
@@ -44370,7 +44383,7 @@
       </c>
     </row>
     <row r="76" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A76" s="145">
+      <c r="A76" s="146">
         <v>46</v>
       </c>
       <c r="B76" s="15">
@@ -44396,7 +44409,7 @@
       </c>
       <c r="J76" s="75"/>
       <c r="P76" s="76"/>
-      <c r="Q76" s="145">
+      <c r="Q76" s="146">
         <v>46</v>
       </c>
       <c r="R76" s="98"/>
@@ -44405,7 +44418,7 @@
       <c r="U76" s="107"/>
       <c r="V76" s="107"/>
       <c r="X76" s="76"/>
-      <c r="Z76" s="145">
+      <c r="Z76" s="146">
         <v>46</v>
       </c>
       <c r="AA76" s="92"/>
@@ -44415,7 +44428,7 @@
       <c r="AE76" s="101"/>
       <c r="AF76" s="101"/>
       <c r="AG76" s="109"/>
-      <c r="AI76" s="145">
+      <c r="AI76" s="146">
         <v>46</v>
       </c>
       <c r="AJ76" s="95"/>
@@ -44425,7 +44438,7 @@
       <c r="AN76" s="104"/>
       <c r="AO76" s="104"/>
       <c r="AP76" s="110"/>
-      <c r="AR76" s="145">
+      <c r="AR76" s="146">
         <v>46</v>
       </c>
       <c r="AS76" s="124"/>
@@ -44437,7 +44450,7 @@
       <c r="AY76" s="126"/>
     </row>
     <row r="77" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A77" s="146"/>
+      <c r="A77" s="147"/>
       <c r="B77" s="23">
         <v>0</v>
       </c>
@@ -44461,14 +44474,14 @@
       </c>
       <c r="J77" s="75"/>
       <c r="P77" s="76"/>
-      <c r="Q77" s="146"/>
+      <c r="Q77" s="147"/>
       <c r="R77" s="98"/>
       <c r="S77" s="107"/>
       <c r="T77" s="107"/>
       <c r="U77" s="107"/>
       <c r="V77" s="107"/>
       <c r="X77" s="76"/>
-      <c r="Z77" s="146"/>
+      <c r="Z77" s="147"/>
       <c r="AA77" s="92"/>
       <c r="AB77" s="101"/>
       <c r="AC77" s="101"/>
@@ -44476,7 +44489,7 @@
       <c r="AE77" s="101"/>
       <c r="AF77" s="101"/>
       <c r="AG77" s="109"/>
-      <c r="AI77" s="146"/>
+      <c r="AI77" s="147"/>
       <c r="AJ77" s="95"/>
       <c r="AK77" s="104"/>
       <c r="AL77" s="104"/>
@@ -44484,7 +44497,7 @@
       <c r="AN77" s="104"/>
       <c r="AO77" s="104"/>
       <c r="AP77" s="110"/>
-      <c r="AR77" s="146"/>
+      <c r="AR77" s="147"/>
       <c r="AS77" s="124"/>
       <c r="AT77" s="125"/>
       <c r="AU77" s="125"/>
@@ -44494,7 +44507,7 @@
       <c r="AY77" s="126"/>
     </row>
     <row r="78" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A78" s="146"/>
+      <c r="A78" s="147"/>
       <c r="B78" s="20">
         <v>1</v>
       </c>
@@ -44518,14 +44531,14 @@
       </c>
       <c r="J78" s="75"/>
       <c r="P78" s="76"/>
-      <c r="Q78" s="146"/>
+      <c r="Q78" s="147"/>
       <c r="R78" s="98"/>
       <c r="S78" s="107"/>
       <c r="T78" s="107"/>
       <c r="U78" s="107"/>
       <c r="V78" s="107"/>
       <c r="X78" s="76"/>
-      <c r="Z78" s="146"/>
+      <c r="Z78" s="147"/>
       <c r="AA78" s="92"/>
       <c r="AB78" s="101"/>
       <c r="AC78" s="101"/>
@@ -44533,7 +44546,7 @@
       <c r="AE78" s="101"/>
       <c r="AF78" s="101"/>
       <c r="AG78" s="109"/>
-      <c r="AI78" s="146"/>
+      <c r="AI78" s="147"/>
       <c r="AJ78" s="95"/>
       <c r="AK78" s="104"/>
       <c r="AL78" s="104"/>
@@ -44541,7 +44554,7 @@
       <c r="AN78" s="104"/>
       <c r="AO78" s="104"/>
       <c r="AP78" s="110"/>
-      <c r="AR78" s="146"/>
+      <c r="AR78" s="147"/>
       <c r="AS78" s="124"/>
       <c r="AT78" s="125"/>
       <c r="AU78" s="125"/>
@@ -44551,7 +44564,7 @@
       <c r="AY78" s="126"/>
     </row>
     <row r="79" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="147"/>
+      <c r="A79" s="148"/>
       <c r="B79" s="28">
         <v>0</v>
       </c>
@@ -44578,7 +44591,7 @@
       <c r="N79" s="78"/>
       <c r="O79" s="78"/>
       <c r="P79" s="79"/>
-      <c r="Q79" s="147"/>
+      <c r="Q79" s="148"/>
       <c r="R79" s="97">
         <f>SUM(B76:B79)*J$63</f>
         <v>0.66666666666666663</v>
@@ -44598,7 +44611,7 @@
       </c>
       <c r="W79" s="78"/>
       <c r="X79" s="79"/>
-      <c r="Z79" s="147"/>
+      <c r="Z79" s="148"/>
       <c r="AA79" s="91">
         <f>R79/R$81</f>
         <v>5.1362222033833583E-4</v>
@@ -44627,7 +44640,7 @@
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="AI79" s="147"/>
+      <c r="AI79" s="148"/>
       <c r="AJ79" s="94">
         <f>SUM(B76:B79)-R79</f>
         <v>0.33333333333333337</v>
@@ -44656,7 +44669,7 @@
         <f t="shared" ref="AP79" si="77">SUM(H76:H79)-X79</f>
         <v>0</v>
       </c>
-      <c r="AR79" s="147"/>
+      <c r="AR79" s="148"/>
       <c r="AS79" s="127">
         <f>AJ79/AJ$81</f>
         <v>5.6749244125249847E-4</v>
@@ -44800,18 +44813,73 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="AR76:AR79"/>
+    <mergeCell ref="AR52:AR55"/>
+    <mergeCell ref="AR56:AR59"/>
+    <mergeCell ref="AR60:AR63"/>
+    <mergeCell ref="AR64:AR67"/>
+    <mergeCell ref="AR68:AR71"/>
+    <mergeCell ref="AR72:AR75"/>
+    <mergeCell ref="AI64:AI67"/>
+    <mergeCell ref="AI68:AI71"/>
+    <mergeCell ref="AI72:AI75"/>
+    <mergeCell ref="AI76:AI79"/>
+    <mergeCell ref="AI56:AI59"/>
+    <mergeCell ref="AI60:AI63"/>
+    <mergeCell ref="AR4:AR7"/>
+    <mergeCell ref="AR8:AR11"/>
+    <mergeCell ref="AR12:AR15"/>
+    <mergeCell ref="AR16:AR19"/>
+    <mergeCell ref="AR20:AR23"/>
+    <mergeCell ref="AR24:AR27"/>
+    <mergeCell ref="AI40:AI43"/>
+    <mergeCell ref="AI44:AI47"/>
+    <mergeCell ref="AI48:AI51"/>
+    <mergeCell ref="AI52:AI55"/>
+    <mergeCell ref="AR48:AR51"/>
+    <mergeCell ref="AR28:AR31"/>
+    <mergeCell ref="AR32:AR35"/>
+    <mergeCell ref="AR36:AR39"/>
+    <mergeCell ref="AR40:AR43"/>
+    <mergeCell ref="AR44:AR47"/>
+    <mergeCell ref="Z76:Z79"/>
+    <mergeCell ref="AI4:AI7"/>
+    <mergeCell ref="AI8:AI11"/>
+    <mergeCell ref="AI12:AI15"/>
+    <mergeCell ref="AI16:AI19"/>
+    <mergeCell ref="AI20:AI23"/>
+    <mergeCell ref="AI24:AI27"/>
+    <mergeCell ref="AI28:AI31"/>
+    <mergeCell ref="AI32:AI35"/>
+    <mergeCell ref="AI36:AI39"/>
+    <mergeCell ref="Z52:Z55"/>
+    <mergeCell ref="Z56:Z59"/>
+    <mergeCell ref="Z60:Z63"/>
+    <mergeCell ref="Z64:Z67"/>
+    <mergeCell ref="Z68:Z71"/>
+    <mergeCell ref="Z72:Z75"/>
+    <mergeCell ref="Q64:Q67"/>
+    <mergeCell ref="Q68:Q71"/>
+    <mergeCell ref="Q72:Q75"/>
+    <mergeCell ref="Q76:Q79"/>
+    <mergeCell ref="Q56:Q59"/>
+    <mergeCell ref="Q60:Q63"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="Z8:Z11"/>
+    <mergeCell ref="Z12:Z15"/>
+    <mergeCell ref="Z16:Z19"/>
+    <mergeCell ref="Z20:Z23"/>
+    <mergeCell ref="Z24:Z27"/>
+    <mergeCell ref="Q40:Q43"/>
+    <mergeCell ref="Q44:Q47"/>
+    <mergeCell ref="Q48:Q51"/>
+    <mergeCell ref="Q52:Q55"/>
+    <mergeCell ref="Z48:Z51"/>
+    <mergeCell ref="Z28:Z31"/>
+    <mergeCell ref="Z32:Z35"/>
+    <mergeCell ref="Z36:Z39"/>
+    <mergeCell ref="Z40:Z43"/>
+    <mergeCell ref="Z44:Z47"/>
     <mergeCell ref="A76:A79"/>
     <mergeCell ref="Q4:Q7"/>
     <mergeCell ref="Q8:Q11"/>
@@ -44828,73 +44896,18 @@
     <mergeCell ref="A64:A67"/>
     <mergeCell ref="A68:A71"/>
     <mergeCell ref="A72:A75"/>
-    <mergeCell ref="Z24:Z27"/>
-    <mergeCell ref="Q40:Q43"/>
-    <mergeCell ref="Q44:Q47"/>
-    <mergeCell ref="Q48:Q51"/>
-    <mergeCell ref="Q52:Q55"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="Z8:Z11"/>
-    <mergeCell ref="Z12:Z15"/>
-    <mergeCell ref="Z16:Z19"/>
-    <mergeCell ref="Z20:Z23"/>
-    <mergeCell ref="Z48:Z51"/>
-    <mergeCell ref="Q64:Q67"/>
-    <mergeCell ref="Q68:Q71"/>
-    <mergeCell ref="Q72:Q75"/>
-    <mergeCell ref="Q76:Q79"/>
-    <mergeCell ref="Q56:Q59"/>
-    <mergeCell ref="Q60:Q63"/>
-    <mergeCell ref="Z28:Z31"/>
-    <mergeCell ref="Z32:Z35"/>
-    <mergeCell ref="Z36:Z39"/>
-    <mergeCell ref="Z40:Z43"/>
-    <mergeCell ref="Z44:Z47"/>
-    <mergeCell ref="Z76:Z79"/>
-    <mergeCell ref="AI4:AI7"/>
-    <mergeCell ref="AI8:AI11"/>
-    <mergeCell ref="AI12:AI15"/>
-    <mergeCell ref="AI16:AI19"/>
-    <mergeCell ref="AI20:AI23"/>
-    <mergeCell ref="AI24:AI27"/>
-    <mergeCell ref="AI28:AI31"/>
-    <mergeCell ref="AI32:AI35"/>
-    <mergeCell ref="AI36:AI39"/>
-    <mergeCell ref="Z52:Z55"/>
-    <mergeCell ref="Z56:Z59"/>
-    <mergeCell ref="Z60:Z63"/>
-    <mergeCell ref="Z64:Z67"/>
-    <mergeCell ref="Z68:Z71"/>
-    <mergeCell ref="Z72:Z75"/>
-    <mergeCell ref="AR24:AR27"/>
-    <mergeCell ref="AI40:AI43"/>
-    <mergeCell ref="AI44:AI47"/>
-    <mergeCell ref="AI48:AI51"/>
-    <mergeCell ref="AI52:AI55"/>
-    <mergeCell ref="AR4:AR7"/>
-    <mergeCell ref="AR8:AR11"/>
-    <mergeCell ref="AR12:AR15"/>
-    <mergeCell ref="AR16:AR19"/>
-    <mergeCell ref="AR20:AR23"/>
-    <mergeCell ref="AR48:AR51"/>
-    <mergeCell ref="AI64:AI67"/>
-    <mergeCell ref="AI68:AI71"/>
-    <mergeCell ref="AI72:AI75"/>
-    <mergeCell ref="AI76:AI79"/>
-    <mergeCell ref="AI56:AI59"/>
-    <mergeCell ref="AI60:AI63"/>
-    <mergeCell ref="AR28:AR31"/>
-    <mergeCell ref="AR32:AR35"/>
-    <mergeCell ref="AR36:AR39"/>
-    <mergeCell ref="AR40:AR43"/>
-    <mergeCell ref="AR44:AR47"/>
-    <mergeCell ref="AR76:AR79"/>
-    <mergeCell ref="AR52:AR55"/>
-    <mergeCell ref="AR56:AR59"/>
-    <mergeCell ref="AR60:AR63"/>
-    <mergeCell ref="AR64:AR67"/>
-    <mergeCell ref="AR68:AR71"/>
-    <mergeCell ref="AR72:AR75"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -48072,17 +48085,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="38"/>
@@ -70045,15 +70058,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100298F9B432ADB2046A0C381705B32A76E" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee832265c4a429c956724ce71338fc3f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f5b128de-c6a3-4183-b93b-b89b90348e84" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e0aa073e0ada9a2d75ee910b0b9221e" ns3:_="">
     <xsd:import namespace="f5b128de-c6a3-4183-b93b-b89b90348e84"/>
@@ -70253,6 +70257,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -70262,14 +70275,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B002A24E-7704-4B1D-BD02-9E8E2D2A04DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4DA6E66-7515-43FB-A4B9-E3A8409982E0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -70283,6 +70288,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B002A24E-7704-4B1D-BD02-9E8E2D2A04DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
